--- a/data_month/zb/价格指数/居民消费价格分类指数(上月=100)/农村居民消费价格分类指数(上月=100)(2016-).xlsx
+++ b/data_month/zb/价格指数/居民消费价格分类指数(上月=100)/农村居民消费价格分类指数(上月=100)(2016-).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -483,2063 +483,2063 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2016年10月</t>
+          <t>2016-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100.0205318</v>
+        <v>99.97072279</v>
       </c>
       <c r="C2" t="n">
-        <v>99.79634371</v>
+        <v>100.42962941</v>
       </c>
       <c r="D2" t="n">
-        <v>99.91013006</v>
+        <v>100.49539154</v>
       </c>
       <c r="E2" t="n">
-        <v>100.6001148</v>
+        <v>100.10080563</v>
       </c>
       <c r="F2" t="n">
-        <v>100.3018555</v>
+        <v>100.07112782</v>
       </c>
       <c r="G2" t="n">
-        <v>99.97073663</v>
+        <v>100.30871457</v>
       </c>
       <c r="H2" t="n">
-        <v>100.0329538</v>
+        <v>99.99406930000001</v>
       </c>
       <c r="I2" t="n">
-        <v>100.711303099999</v>
+        <v>99.83856883</v>
       </c>
       <c r="J2" t="n">
-        <v>99.2066239699999</v>
+        <v>101.40132676</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2016年11月</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100.0651289</v>
+        <v>100.41308871</v>
       </c>
       <c r="C3" t="n">
-        <v>100.0535019</v>
+        <v>101.55148802</v>
       </c>
       <c r="D3" t="n">
-        <v>100.1583038</v>
+        <v>101.55109102</v>
       </c>
       <c r="E3" t="n">
-        <v>100.3745128</v>
+        <v>100.094564</v>
       </c>
       <c r="F3" t="n">
-        <v>100.4154948</v>
+        <v>100.08944531</v>
       </c>
       <c r="G3" t="n">
-        <v>99.91431093</v>
+        <v>100.22725619</v>
       </c>
       <c r="H3" t="n">
-        <v>100.0927961</v>
+        <v>99.9632617</v>
       </c>
       <c r="I3" t="n">
-        <v>100.6745545</v>
+        <v>99.52562238</v>
       </c>
       <c r="J3" t="n">
-        <v>99.95628785</v>
+        <v>104.55173535</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2016年12月</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>100.5349066</v>
+        <v>99.39101162</v>
       </c>
       <c r="C4" t="n">
-        <v>100.0508008</v>
+        <v>99.95848011</v>
       </c>
       <c r="D4" t="n">
-        <v>100.2532377</v>
+        <v>99.55320516</v>
       </c>
       <c r="E4" t="n">
-        <v>100.2274989</v>
+        <v>100.21362654</v>
       </c>
       <c r="F4" t="n">
-        <v>100.2582431</v>
+        <v>100.15915841</v>
       </c>
       <c r="G4" t="n">
-        <v>100.0284138</v>
+        <v>99.89710712</v>
       </c>
       <c r="H4" t="n">
-        <v>100.1251148</v>
+        <v>100.01919618</v>
       </c>
       <c r="I4" t="n">
-        <v>100.3642925</v>
+        <v>100.14662668</v>
       </c>
       <c r="J4" t="n">
-        <v>100.2487423</v>
+        <v>98.69902956999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2016年1月</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>99.97072279</v>
+        <v>100.01777375</v>
       </c>
       <c r="C5" t="n">
-        <v>100.42962941</v>
+        <v>99.99760147000001</v>
       </c>
       <c r="D5" t="n">
-        <v>100.49539154</v>
+        <v>99.82216003000001</v>
       </c>
       <c r="E5" t="n">
-        <v>100.10080563</v>
+        <v>100.20904728</v>
       </c>
       <c r="F5" t="n">
-        <v>100.07112782</v>
+        <v>99.98217674999999</v>
       </c>
       <c r="G5" t="n">
-        <v>100.30871457</v>
+        <v>100.04092408</v>
       </c>
       <c r="H5" t="n">
-        <v>99.99406930000001</v>
+        <v>99.99748972</v>
       </c>
       <c r="I5" t="n">
-        <v>99.83856883</v>
+        <v>100.24691381</v>
       </c>
       <c r="J5" t="n">
-        <v>101.40132676</v>
+        <v>99.33010327</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2016年2月</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100.41308871</v>
+        <v>100.41616875</v>
       </c>
       <c r="C6" t="n">
-        <v>101.55148802</v>
+        <v>100.17390608</v>
       </c>
       <c r="D6" t="n">
-        <v>101.55109102</v>
+        <v>99.57558091999999</v>
       </c>
       <c r="E6" t="n">
-        <v>100.094564</v>
+        <v>100.08295906</v>
       </c>
       <c r="F6" t="n">
-        <v>100.08944531</v>
+        <v>99.95066679</v>
       </c>
       <c r="G6" t="n">
-        <v>100.22725619</v>
+        <v>100.00691872</v>
       </c>
       <c r="H6" t="n">
-        <v>99.9632617</v>
+        <v>100.0312283</v>
       </c>
       <c r="I6" t="n">
-        <v>99.52562238</v>
+        <v>100.28376587</v>
       </c>
       <c r="J6" t="n">
-        <v>104.55173535</v>
+        <v>98.45738951</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2016年3月</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.39101162</v>
+        <v>100.62053066</v>
       </c>
       <c r="C7" t="n">
-        <v>99.95848011</v>
+        <v>100.16389419</v>
       </c>
       <c r="D7" t="n">
-        <v>99.55320516</v>
+        <v>99.85907331999999</v>
       </c>
       <c r="E7" t="n">
-        <v>100.21362654</v>
+        <v>100.26725492</v>
       </c>
       <c r="F7" t="n">
-        <v>100.15915841</v>
+        <v>100.0010084</v>
       </c>
       <c r="G7" t="n">
-        <v>99.89710712</v>
+        <v>100.03928614</v>
       </c>
       <c r="H7" t="n">
-        <v>100.01919618</v>
+        <v>100.05651998</v>
       </c>
       <c r="I7" t="n">
-        <v>100.14662668</v>
+        <v>99.91716753999999</v>
       </c>
       <c r="J7" t="n">
-        <v>98.69902956999999</v>
+        <v>99.23239742</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2016年4月</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>100.01777375</v>
+        <v>99.92484845</v>
       </c>
       <c r="C8" t="n">
-        <v>99.99760147000001</v>
+        <v>101.04591461</v>
       </c>
       <c r="D8" t="n">
-        <v>99.82216003000001</v>
+        <v>99.95645381999999</v>
       </c>
       <c r="E8" t="n">
-        <v>100.20904728</v>
+        <v>100.21237752</v>
       </c>
       <c r="F8" t="n">
-        <v>99.98217674999999</v>
+        <v>100.02334323</v>
       </c>
       <c r="G8" t="n">
-        <v>100.04092408</v>
+        <v>100.38722871</v>
       </c>
       <c r="H8" t="n">
-        <v>99.99748972</v>
+        <v>100.01828258</v>
       </c>
       <c r="I8" t="n">
-        <v>100.24691381</v>
+        <v>99.60575326</v>
       </c>
       <c r="J8" t="n">
-        <v>99.33010327</v>
+        <v>99.67783755000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2016年5月</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>100.41616875</v>
+        <v>99.45537858</v>
       </c>
       <c r="C9" t="n">
-        <v>100.17390608</v>
+        <v>100.17255947</v>
       </c>
       <c r="D9" t="n">
-        <v>99.57558091999999</v>
+        <v>100.06645051</v>
       </c>
       <c r="E9" t="n">
-        <v>100.08295906</v>
+        <v>100.31662731</v>
       </c>
       <c r="F9" t="n">
-        <v>99.95066679</v>
+        <v>100.13542155</v>
       </c>
       <c r="G9" t="n">
-        <v>100.00691872</v>
+        <v>100.00770509</v>
       </c>
       <c r="H9" t="n">
-        <v>100.0312283</v>
+        <v>99.97757888</v>
       </c>
       <c r="I9" t="n">
-        <v>100.28376587</v>
+        <v>99.59535867</v>
       </c>
       <c r="J9" t="n">
-        <v>98.45738951</v>
+        <v>100.3135921</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2016年6月</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>100.62053066</v>
+        <v>100.277470199999</v>
       </c>
       <c r="C10" t="n">
-        <v>100.16389419</v>
+        <v>100.0860349</v>
       </c>
       <c r="D10" t="n">
-        <v>99.85907331999999</v>
+        <v>100.6807354</v>
       </c>
       <c r="E10" t="n">
-        <v>100.26725492</v>
+        <v>100.2262053</v>
       </c>
       <c r="F10" t="n">
-        <v>100.0010084</v>
+        <v>100.3309488</v>
       </c>
       <c r="G10" t="n">
-        <v>100.03928614</v>
+        <v>101.482503199999</v>
       </c>
       <c r="H10" t="n">
-        <v>100.05651998</v>
+        <v>100.0036221</v>
       </c>
       <c r="I10" t="n">
-        <v>99.91716753999999</v>
+        <v>100.484780499999</v>
       </c>
       <c r="J10" t="n">
-        <v>99.23239742</v>
+        <v>101.1227966</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2016年7月</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>99.92484845</v>
+        <v>100.0205318</v>
       </c>
       <c r="C11" t="n">
-        <v>101.04591461</v>
+        <v>99.79634371</v>
       </c>
       <c r="D11" t="n">
-        <v>99.95645381999999</v>
+        <v>99.91013006</v>
       </c>
       <c r="E11" t="n">
-        <v>100.21237752</v>
+        <v>100.6001148</v>
       </c>
       <c r="F11" t="n">
-        <v>100.02334323</v>
+        <v>100.3018555</v>
       </c>
       <c r="G11" t="n">
-        <v>100.38722871</v>
+        <v>99.97073663</v>
       </c>
       <c r="H11" t="n">
-        <v>100.01828258</v>
+        <v>100.0329538</v>
       </c>
       <c r="I11" t="n">
-        <v>99.60575326</v>
+        <v>100.711303099999</v>
       </c>
       <c r="J11" t="n">
-        <v>99.67783755000001</v>
+        <v>99.2066239699999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2016年8月</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>99.45537858</v>
+        <v>100.0651289</v>
       </c>
       <c r="C12" t="n">
-        <v>100.17255947</v>
+        <v>100.0535019</v>
       </c>
       <c r="D12" t="n">
-        <v>100.06645051</v>
+        <v>100.1583038</v>
       </c>
       <c r="E12" t="n">
-        <v>100.31662731</v>
+        <v>100.3745128</v>
       </c>
       <c r="F12" t="n">
-        <v>100.13542155</v>
+        <v>100.4154948</v>
       </c>
       <c r="G12" t="n">
-        <v>100.00770509</v>
+        <v>99.91431093</v>
       </c>
       <c r="H12" t="n">
-        <v>99.97757888</v>
+        <v>100.0927961</v>
       </c>
       <c r="I12" t="n">
-        <v>99.59535867</v>
+        <v>100.6745545</v>
       </c>
       <c r="J12" t="n">
-        <v>100.3135921</v>
+        <v>99.95628785</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2016年9月</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>100.277470199999</v>
+        <v>100.5349066</v>
       </c>
       <c r="C13" t="n">
-        <v>100.0860349</v>
+        <v>100.0508008</v>
       </c>
       <c r="D13" t="n">
-        <v>100.6807354</v>
+        <v>100.2532377</v>
       </c>
       <c r="E13" t="n">
-        <v>100.2262053</v>
+        <v>100.2274989</v>
       </c>
       <c r="F13" t="n">
-        <v>100.3309488</v>
+        <v>100.2582431</v>
       </c>
       <c r="G13" t="n">
-        <v>101.482503199999</v>
+        <v>100.0284138</v>
       </c>
       <c r="H13" t="n">
-        <v>100.0036221</v>
+        <v>100.1251148</v>
       </c>
       <c r="I13" t="n">
-        <v>100.484780499999</v>
+        <v>100.3642925</v>
       </c>
       <c r="J13" t="n">
-        <v>101.1227966</v>
+        <v>100.2487423</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2017年10月</t>
+          <t>2017-01</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>100.3917563</v>
+        <v>101.3692622</v>
       </c>
       <c r="C14" t="n">
-        <v>99.98605753</v>
+        <v>101.3296835</v>
       </c>
       <c r="D14" t="n">
-        <v>100.1966838</v>
+        <v>100.8516626</v>
       </c>
       <c r="E14" t="n">
-        <v>100.3686284</v>
+        <v>100.2345033</v>
       </c>
       <c r="F14" t="n">
-        <v>100.3986448</v>
+        <v>100.388515</v>
       </c>
       <c r="G14" t="n">
-        <v>99.98743104</v>
+        <v>100.4488534</v>
       </c>
       <c r="H14" t="n">
-        <v>100.1774365</v>
+        <v>100.1808453</v>
       </c>
       <c r="I14" t="n">
-        <v>100.7673089</v>
+        <v>99.75051478</v>
       </c>
       <c r="J14" t="n">
-        <v>99.90435313</v>
+        <v>101.6213587</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2017年11月</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>100.4059776</v>
+        <v>99.95300066999999</v>
       </c>
       <c r="C15" t="n">
-        <v>100.1389582</v>
+        <v>99.73137139000001</v>
       </c>
       <c r="D15" t="n">
-        <v>100.0344093</v>
+        <v>99.89347902999999</v>
       </c>
       <c r="E15" t="n">
-        <v>100.1749715</v>
+        <v>100.25171447</v>
       </c>
       <c r="F15" t="n">
-        <v>100.3287234</v>
+        <v>100.24186322</v>
       </c>
       <c r="G15" t="n">
-        <v>99.90596026999999</v>
+        <v>99.99687332000001</v>
       </c>
       <c r="H15" t="n">
-        <v>100.0827247</v>
+        <v>100.10856537</v>
       </c>
       <c r="I15" t="n">
-        <v>100.5848017</v>
+        <v>99.26164337</v>
       </c>
       <c r="J15" t="n">
-        <v>99.55721352</v>
+        <v>99.62367458</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2017年12月</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>100.2563381</v>
+        <v>99.5204705</v>
       </c>
       <c r="C16" t="n">
-        <v>99.95306913</v>
+        <v>100.0395077</v>
       </c>
       <c r="D16" t="n">
-        <v>100.395861</v>
+        <v>99.61679911</v>
       </c>
       <c r="E16" t="n">
-        <v>100.1665037</v>
+        <v>100.5166449</v>
       </c>
       <c r="F16" t="n">
-        <v>100.3376999</v>
+        <v>100.1716558</v>
       </c>
       <c r="G16" t="n">
-        <v>100.0530487</v>
+        <v>100.0485581</v>
       </c>
       <c r="H16" t="n">
-        <v>100.1960071</v>
+        <v>100.1328066</v>
       </c>
       <c r="I16" t="n">
-        <v>100.2793002</v>
+        <v>100.350167</v>
       </c>
       <c r="J16" t="n">
-        <v>100.7894343</v>
+        <v>98.58596287</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2017年1月</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>101.3692622</v>
+        <v>99.77565045999999</v>
       </c>
       <c r="C17" t="n">
-        <v>101.3296835</v>
+        <v>100.2834852</v>
       </c>
       <c r="D17" t="n">
-        <v>100.8516626</v>
+        <v>99.96108786000001</v>
       </c>
       <c r="E17" t="n">
-        <v>100.2345033</v>
+        <v>100.4873994</v>
       </c>
       <c r="F17" t="n">
-        <v>100.388515</v>
+        <v>100.0917778</v>
       </c>
       <c r="G17" t="n">
-        <v>100.4488534</v>
+        <v>100.0929488</v>
       </c>
       <c r="H17" t="n">
-        <v>100.1808453</v>
+        <v>100.1997257</v>
       </c>
       <c r="I17" t="n">
-        <v>99.75051478</v>
+        <v>100.28585</v>
       </c>
       <c r="J17" t="n">
-        <v>101.6213587</v>
+        <v>99.59508246</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2017年2月</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>99.95300066999999</v>
+        <v>99.79216533</v>
       </c>
       <c r="C18" t="n">
-        <v>99.73137139000001</v>
+        <v>100.059827</v>
       </c>
       <c r="D18" t="n">
-        <v>99.89347902999999</v>
+        <v>99.86737173</v>
       </c>
       <c r="E18" t="n">
-        <v>100.25171447</v>
+        <v>100.3609528</v>
       </c>
       <c r="F18" t="n">
-        <v>100.24186322</v>
+        <v>100.1122801</v>
       </c>
       <c r="G18" t="n">
-        <v>99.99687332000001</v>
+        <v>100.0199351</v>
       </c>
       <c r="H18" t="n">
-        <v>100.10856537</v>
+        <v>100.1576781</v>
       </c>
       <c r="I18" t="n">
-        <v>99.26164337</v>
+        <v>100.3079593</v>
       </c>
       <c r="J18" t="n">
-        <v>99.62367458</v>
+        <v>99.35926920999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2017年3月</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>99.5204705</v>
+        <v>99.64833441</v>
       </c>
       <c r="C19" t="n">
-        <v>100.0395077</v>
+        <v>100.0646847</v>
       </c>
       <c r="D19" t="n">
-        <v>99.61679911</v>
+        <v>99.76223494</v>
       </c>
       <c r="E19" t="n">
-        <v>100.5166449</v>
+        <v>100.2675512</v>
       </c>
       <c r="F19" t="n">
-        <v>100.1716558</v>
+        <v>100.1081119</v>
       </c>
       <c r="G19" t="n">
-        <v>100.0485581</v>
+        <v>100.0538641</v>
       </c>
       <c r="H19" t="n">
-        <v>100.1328066</v>
+        <v>100.1627679</v>
       </c>
       <c r="I19" t="n">
-        <v>100.350167</v>
+        <v>99.85832317000001</v>
       </c>
       <c r="J19" t="n">
-        <v>98.58596287</v>
+        <v>99.19295377</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2017年4月</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>99.77565045999999</v>
+        <v>99.58437339</v>
       </c>
       <c r="C20" t="n">
-        <v>100.2834852</v>
+        <v>99.97892005</v>
       </c>
       <c r="D20" t="n">
-        <v>99.96108786000001</v>
+        <v>100.0286259</v>
       </c>
       <c r="E20" t="n">
-        <v>100.4873994</v>
+        <v>100.4957834</v>
       </c>
       <c r="F20" t="n">
-        <v>100.0917778</v>
+        <v>100.141793</v>
       </c>
       <c r="G20" t="n">
-        <v>100.0929488</v>
+        <v>100.367776</v>
       </c>
       <c r="H20" t="n">
-        <v>100.1997257</v>
+        <v>100.1382445</v>
       </c>
       <c r="I20" t="n">
-        <v>100.28585</v>
+        <v>99.60620016999999</v>
       </c>
       <c r="J20" t="n">
-        <v>99.59508246</v>
+        <v>99.93479762</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2017年5月</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>99.79216533</v>
+        <v>100.4494804</v>
       </c>
       <c r="C21" t="n">
-        <v>100.059827</v>
+        <v>99.97496022</v>
       </c>
       <c r="D21" t="n">
-        <v>99.86737173</v>
+        <v>100.5031578</v>
       </c>
       <c r="E21" t="n">
-        <v>100.3609528</v>
+        <v>100.3748696</v>
       </c>
       <c r="F21" t="n">
-        <v>100.1122801</v>
+        <v>100.458661</v>
       </c>
       <c r="G21" t="n">
-        <v>100.0199351</v>
+        <v>99.99308463</v>
       </c>
       <c r="H21" t="n">
-        <v>100.1576781</v>
+        <v>100.1515015</v>
       </c>
       <c r="I21" t="n">
-        <v>100.3079593</v>
+        <v>99.67200261000001</v>
       </c>
       <c r="J21" t="n">
-        <v>99.35926920999999</v>
+        <v>101.086938</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2017年6月</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>99.64833441</v>
+        <v>100.1985404</v>
       </c>
       <c r="C22" t="n">
-        <v>100.0646847</v>
+        <v>100.2622839</v>
       </c>
       <c r="D22" t="n">
-        <v>99.76223494</v>
+        <v>100.5614961</v>
       </c>
       <c r="E22" t="n">
-        <v>100.2675512</v>
+        <v>100.873904</v>
       </c>
       <c r="F22" t="n">
-        <v>100.1081119</v>
+        <v>100.4960271</v>
       </c>
       <c r="G22" t="n">
-        <v>100.0538641</v>
+        <v>101.15723</v>
       </c>
       <c r="H22" t="n">
-        <v>100.1627679</v>
+        <v>100.0942164</v>
       </c>
       <c r="I22" t="n">
-        <v>99.85832317000001</v>
+        <v>100.6359758</v>
       </c>
       <c r="J22" t="n">
-        <v>99.19295377</v>
+        <v>100.5249808</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2017年7月</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>99.58437339</v>
+        <v>100.3917563</v>
       </c>
       <c r="C23" t="n">
-        <v>99.97892005</v>
+        <v>99.98605753</v>
       </c>
       <c r="D23" t="n">
-        <v>100.0286259</v>
+        <v>100.1966838</v>
       </c>
       <c r="E23" t="n">
-        <v>100.4957834</v>
+        <v>100.3686284</v>
       </c>
       <c r="F23" t="n">
-        <v>100.141793</v>
+        <v>100.3986448</v>
       </c>
       <c r="G23" t="n">
-        <v>100.367776</v>
+        <v>99.98743104</v>
       </c>
       <c r="H23" t="n">
-        <v>100.1382445</v>
+        <v>100.1774365</v>
       </c>
       <c r="I23" t="n">
-        <v>99.60620016999999</v>
+        <v>100.7673089</v>
       </c>
       <c r="J23" t="n">
-        <v>99.93479762</v>
+        <v>99.90435313</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2017年8月</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>100.4494804</v>
+        <v>100.4059776</v>
       </c>
       <c r="C24" t="n">
-        <v>99.97496022</v>
+        <v>100.1389582</v>
       </c>
       <c r="D24" t="n">
-        <v>100.5031578</v>
+        <v>100.0344093</v>
       </c>
       <c r="E24" t="n">
-        <v>100.3748696</v>
+        <v>100.1749715</v>
       </c>
       <c r="F24" t="n">
-        <v>100.458661</v>
+        <v>100.3287234</v>
       </c>
       <c r="G24" t="n">
-        <v>99.99308463</v>
+        <v>99.90596026999999</v>
       </c>
       <c r="H24" t="n">
-        <v>100.1515015</v>
+        <v>100.0827247</v>
       </c>
       <c r="I24" t="n">
-        <v>99.67200261000001</v>
+        <v>100.5848017</v>
       </c>
       <c r="J24" t="n">
-        <v>101.086938</v>
+        <v>99.55721352</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2017年9月</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>100.1985404</v>
+        <v>100.2563381</v>
       </c>
       <c r="C25" t="n">
-        <v>100.2622839</v>
+        <v>99.95306913</v>
       </c>
       <c r="D25" t="n">
-        <v>100.5614961</v>
+        <v>100.395861</v>
       </c>
       <c r="E25" t="n">
-        <v>100.873904</v>
+        <v>100.1665037</v>
       </c>
       <c r="F25" t="n">
-        <v>100.4960271</v>
+        <v>100.3376999</v>
       </c>
       <c r="G25" t="n">
-        <v>101.15723</v>
+        <v>100.0530487</v>
       </c>
       <c r="H25" t="n">
-        <v>100.0942164</v>
+        <v>100.1960071</v>
       </c>
       <c r="I25" t="n">
-        <v>100.6359758</v>
+        <v>100.2793002</v>
       </c>
       <c r="J25" t="n">
-        <v>100.5249808</v>
+        <v>100.7894343</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2018年10月</t>
+          <t>2018-01</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>100.71165486</v>
+        <v>100.4506285</v>
       </c>
       <c r="C26" t="n">
-        <v>100.24246761</v>
+        <v>100.602013</v>
       </c>
       <c r="D26" t="n">
-        <v>100.2089149</v>
+        <v>100.6296124</v>
       </c>
       <c r="E26" t="n">
-        <v>100.18443181</v>
+        <v>100.3875426</v>
       </c>
       <c r="F26" t="n">
-        <v>100.39457371</v>
+        <v>100.2890269</v>
       </c>
       <c r="G26" t="n">
-        <v>100.04882557</v>
+        <v>100.1990018</v>
       </c>
       <c r="H26" t="n">
-        <v>100.1407802</v>
+        <v>100.2363703</v>
       </c>
       <c r="I26" t="n">
-        <v>100.86979858</v>
+        <v>99.96018345</v>
       </c>
       <c r="J26" t="n">
-        <v>99.82171513</v>
+        <v>101.3903269</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2018年11月</t>
+          <t>2018-02</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>99.02640842</v>
+        <v>100.9448706</v>
       </c>
       <c r="C27" t="n">
-        <v>100.28662118</v>
+        <v>100.8958066</v>
       </c>
       <c r="D27" t="n">
-        <v>99.70707422</v>
+        <v>101.1390031</v>
       </c>
       <c r="E27" t="n">
-        <v>100.11015684</v>
+        <v>100.1555932</v>
       </c>
       <c r="F27" t="n">
-        <v>100.10847324</v>
+        <v>100.1479291</v>
       </c>
       <c r="G27" t="n">
-        <v>99.84490884</v>
+        <v>100.5905923</v>
       </c>
       <c r="H27" t="n">
-        <v>100.02491012</v>
+        <v>100.1169569</v>
       </c>
       <c r="I27" t="n">
-        <v>100.67745388</v>
+        <v>99.39040178</v>
       </c>
       <c r="J27" t="n">
-        <v>99.19081405</v>
+        <v>102.979704</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2018年12月</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>98.19013121</v>
+        <v>98.58503348000001</v>
       </c>
       <c r="C28" t="n">
-        <v>100.21338044</v>
+        <v>99.23690053</v>
       </c>
       <c r="D28" t="n">
-        <v>100.04010453</v>
+        <v>98.84275027</v>
       </c>
       <c r="E28" t="n">
-        <v>100.14598769</v>
+        <v>100.2029114</v>
       </c>
       <c r="F28" t="n">
-        <v>100.11007032</v>
+        <v>100.0038151</v>
       </c>
       <c r="G28" t="n">
-        <v>99.95829795</v>
+        <v>99.73597872000001</v>
       </c>
       <c r="H28" t="n">
-        <v>100.12719958</v>
+        <v>100.0741698</v>
       </c>
       <c r="I28" t="n">
-        <v>100.34408937</v>
+        <v>100.2126814</v>
       </c>
       <c r="J28" t="n">
-        <v>100.59313123</v>
+        <v>96.90946572999999</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2018年1月</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>100.4506285</v>
+        <v>100.474155</v>
       </c>
       <c r="C29" t="n">
-        <v>100.602013</v>
+        <v>100.0338458</v>
       </c>
       <c r="D29" t="n">
-        <v>100.6296124</v>
+        <v>99.7</v>
       </c>
       <c r="E29" t="n">
-        <v>100.3875426</v>
+        <v>100.2087246</v>
       </c>
       <c r="F29" t="n">
-        <v>100.2890269</v>
+        <v>100.3214282</v>
       </c>
       <c r="G29" t="n">
-        <v>100.1990018</v>
+        <v>100.0642357</v>
       </c>
       <c r="H29" t="n">
-        <v>100.2363703</v>
+        <v>100.1481492</v>
       </c>
       <c r="I29" t="n">
-        <v>99.96018345</v>
+        <v>100.1524421</v>
       </c>
       <c r="J29" t="n">
-        <v>101.3903269</v>
+        <v>98.59227586</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2018年2月</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>100.9448706</v>
+        <v>100.5380153</v>
       </c>
       <c r="C30" t="n">
-        <v>100.8958066</v>
+        <v>99.98819476</v>
       </c>
       <c r="D30" t="n">
-        <v>101.1390031</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>100.1555932</v>
+        <v>100.326627</v>
       </c>
       <c r="F30" t="n">
-        <v>100.1479291</v>
+        <v>100.1548958</v>
       </c>
       <c r="G30" t="n">
-        <v>100.5905923</v>
+        <v>99.94992757</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1169569</v>
+        <v>100.0999441</v>
       </c>
       <c r="I30" t="n">
-        <v>99.39040178</v>
+        <v>100.3060455</v>
       </c>
       <c r="J30" t="n">
-        <v>102.979704</v>
+        <v>99.10764155</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2018年3月</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>98.58503348000001</v>
+        <v>100.25907182</v>
       </c>
       <c r="C31" t="n">
-        <v>99.23690053</v>
+        <v>100.00381343</v>
       </c>
       <c r="D31" t="n">
-        <v>98.84275027</v>
+        <v>99.94499908</v>
       </c>
       <c r="E31" t="n">
-        <v>100.2029114</v>
+        <v>100.15231436</v>
       </c>
       <c r="F31" t="n">
-        <v>100.0038151</v>
+        <v>100.12676783</v>
       </c>
       <c r="G31" t="n">
-        <v>99.73597872000001</v>
+        <v>100.07222368</v>
       </c>
       <c r="H31" t="n">
-        <v>100.0741698</v>
+        <v>100.11554941</v>
       </c>
       <c r="I31" t="n">
-        <v>100.2126814</v>
+        <v>99.97751627</v>
       </c>
       <c r="J31" t="n">
-        <v>96.90946572999999</v>
+        <v>99.54028105</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2018年4月</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>100.474155</v>
+        <v>100.11872747</v>
       </c>
       <c r="C32" t="n">
-        <v>100.0338458</v>
+        <v>100.01825354</v>
       </c>
       <c r="D32" t="n">
-        <v>99.7</v>
+        <v>100.14891163</v>
       </c>
       <c r="E32" t="n">
-        <v>100.2087246</v>
+        <v>100.21754165</v>
       </c>
       <c r="F32" t="n">
-        <v>100.3214282</v>
+        <v>100.16686471</v>
       </c>
       <c r="G32" t="n">
-        <v>100.0642357</v>
+        <v>100.4527813</v>
       </c>
       <c r="H32" t="n">
-        <v>100.1481492</v>
+        <v>100.02765592</v>
       </c>
       <c r="I32" t="n">
-        <v>100.1524421</v>
+        <v>99.57744079</v>
       </c>
       <c r="J32" t="n">
-        <v>98.59227586</v>
+        <v>100.18196109</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2018年5月</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>100.5380153</v>
+        <v>100.07488651</v>
       </c>
       <c r="C33" t="n">
-        <v>99.98819476</v>
+        <v>100.01024246</v>
       </c>
       <c r="D33" t="n">
-        <v>99.90000000000001</v>
+        <v>100.76476934</v>
       </c>
       <c r="E33" t="n">
-        <v>100.326627</v>
+        <v>100.29360392</v>
       </c>
       <c r="F33" t="n">
-        <v>100.1548958</v>
+        <v>100.70761829</v>
       </c>
       <c r="G33" t="n">
-        <v>99.94992757</v>
+        <v>100.1308677</v>
       </c>
       <c r="H33" t="n">
-        <v>100.0999441</v>
+        <v>100.03720541</v>
       </c>
       <c r="I33" t="n">
-        <v>100.3060455</v>
+        <v>99.67102626</v>
       </c>
       <c r="J33" t="n">
-        <v>99.10764155</v>
+        <v>101.92563967</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2018年6月</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.25907182</v>
+        <v>100.40768342</v>
       </c>
       <c r="C34" t="n">
-        <v>100.00381343</v>
+        <v>99.9441728</v>
       </c>
       <c r="D34" t="n">
-        <v>99.94499908</v>
+        <v>100.83213399</v>
       </c>
       <c r="E34" t="n">
-        <v>100.15231436</v>
+        <v>100.14678653</v>
       </c>
       <c r="F34" t="n">
-        <v>100.12676783</v>
+        <v>100.48248358</v>
       </c>
       <c r="G34" t="n">
-        <v>100.07222368</v>
+        <v>101.06063899</v>
       </c>
       <c r="H34" t="n">
-        <v>100.11554941</v>
+        <v>100.03413369</v>
       </c>
       <c r="I34" t="n">
-        <v>99.97751627</v>
+        <v>100.53849813</v>
       </c>
       <c r="J34" t="n">
-        <v>99.54028105</v>
+        <v>101.65775682</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2018年7月</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>100.11872747</v>
+        <v>100.71165486</v>
       </c>
       <c r="C35" t="n">
-        <v>100.01825354</v>
+        <v>100.24246761</v>
       </c>
       <c r="D35" t="n">
-        <v>100.14891163</v>
+        <v>100.2089149</v>
       </c>
       <c r="E35" t="n">
-        <v>100.21754165</v>
+        <v>100.18443181</v>
       </c>
       <c r="F35" t="n">
-        <v>100.16686471</v>
+        <v>100.39457371</v>
       </c>
       <c r="G35" t="n">
-        <v>100.4527813</v>
+        <v>100.04882557</v>
       </c>
       <c r="H35" t="n">
-        <v>100.02765592</v>
+        <v>100.1407802</v>
       </c>
       <c r="I35" t="n">
-        <v>99.57744079</v>
+        <v>100.86979858</v>
       </c>
       <c r="J35" t="n">
-        <v>100.18196109</v>
+        <v>99.82171513</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2018年8月</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>100.07488651</v>
+        <v>99.02640842</v>
       </c>
       <c r="C36" t="n">
-        <v>100.01024246</v>
+        <v>100.28662118</v>
       </c>
       <c r="D36" t="n">
-        <v>100.76476934</v>
+        <v>99.70707422</v>
       </c>
       <c r="E36" t="n">
-        <v>100.29360392</v>
+        <v>100.11015684</v>
       </c>
       <c r="F36" t="n">
-        <v>100.70761829</v>
+        <v>100.10847324</v>
       </c>
       <c r="G36" t="n">
-        <v>100.1308677</v>
+        <v>99.84490884</v>
       </c>
       <c r="H36" t="n">
-        <v>100.03720541</v>
+        <v>100.02491012</v>
       </c>
       <c r="I36" t="n">
-        <v>99.67102626</v>
+        <v>100.67745388</v>
       </c>
       <c r="J36" t="n">
-        <v>101.92563967</v>
+        <v>99.19081405</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2018年9月</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>100.40768342</v>
+        <v>98.19013121</v>
       </c>
       <c r="C37" t="n">
-        <v>99.9441728</v>
+        <v>100.21338044</v>
       </c>
       <c r="D37" t="n">
-        <v>100.83213399</v>
+        <v>100.04010453</v>
       </c>
       <c r="E37" t="n">
-        <v>100.14678653</v>
+        <v>100.14598769</v>
       </c>
       <c r="F37" t="n">
-        <v>100.48248358</v>
+        <v>100.11007032</v>
       </c>
       <c r="G37" t="n">
-        <v>101.06063899</v>
+        <v>99.95829795</v>
       </c>
       <c r="H37" t="n">
-        <v>100.03413369</v>
+        <v>100.12719958</v>
       </c>
       <c r="I37" t="n">
-        <v>100.53849813</v>
+        <v>100.34408937</v>
       </c>
       <c r="J37" t="n">
-        <v>101.65775682</v>
+        <v>100.59313123</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2019年10月</t>
+          <t>2019-01</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>100.04556639</v>
+        <v>99.62386609000001</v>
       </c>
       <c r="C38" t="n">
-        <v>100.20190018</v>
+        <v>101.50906223</v>
       </c>
       <c r="D38" t="n">
-        <v>101.18517737</v>
+        <v>100.44261188</v>
       </c>
       <c r="E38" t="n">
-        <v>100.11598976</v>
+        <v>100.46581136</v>
       </c>
       <c r="F38" t="n">
-        <v>100.03769701</v>
+        <v>100.066283</v>
       </c>
       <c r="G38" t="n">
-        <v>100.05181577</v>
+        <v>100.43965018</v>
       </c>
       <c r="H38" t="n">
-        <v>100.02991744</v>
+        <v>100.20544235</v>
       </c>
       <c r="I38" t="n">
-        <v>100.40614475</v>
+        <v>99.80597397</v>
       </c>
       <c r="J38" t="n">
-        <v>103.39143124</v>
+        <v>101.09867558</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2019年11月</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>99.88687314000001</v>
+        <v>101.16300323</v>
       </c>
       <c r="C39" t="n">
-        <v>99.73161331999999</v>
+        <v>100.29865129</v>
       </c>
       <c r="D39" t="n">
-        <v>100.51376522</v>
+        <v>100.85933702</v>
       </c>
       <c r="E39" t="n">
-        <v>100.04957512</v>
+        <v>100.23067048</v>
       </c>
       <c r="F39" t="n">
-        <v>100.07036928</v>
+        <v>100.11028961</v>
       </c>
       <c r="G39" t="n">
-        <v>99.74251080000001</v>
+        <v>100.52660434</v>
       </c>
       <c r="H39" t="n">
-        <v>99.97110739999999</v>
+        <v>100.12557688</v>
       </c>
       <c r="I39" t="n">
-        <v>100.35667893</v>
+        <v>99.62150613999999</v>
       </c>
       <c r="J39" t="n">
-        <v>101.53994071</v>
+        <v>102.03381414</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2019年12月</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>100.16671779</v>
+        <v>99.75667919999999</v>
       </c>
       <c r="C40" t="n">
-        <v>100.02636163</v>
+        <v>99.19353129</v>
       </c>
       <c r="D40" t="n">
-        <v>99.90331725999999</v>
+        <v>99.68548491999999</v>
       </c>
       <c r="E40" t="n">
-        <v>100.24308157</v>
+        <v>100.13238146</v>
       </c>
       <c r="F40" t="n">
-        <v>100.20019114</v>
+        <v>99.86202392</v>
       </c>
       <c r="G40" t="n">
-        <v>100.01608745</v>
+        <v>99.569508</v>
       </c>
       <c r="H40" t="n">
-        <v>100.01908508</v>
+        <v>99.9118933</v>
       </c>
       <c r="I40" t="n">
-        <v>100.15968121</v>
+        <v>100.15031528</v>
       </c>
       <c r="J40" t="n">
-        <v>99.43882682</v>
+        <v>99.34337216999999</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2019年1月</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>99.62386609000001</v>
+        <v>99.94145159999999</v>
       </c>
       <c r="C41" t="n">
-        <v>101.50906223</v>
+        <v>100.12285704</v>
       </c>
       <c r="D41" t="n">
-        <v>100.44261188</v>
+        <v>100.11421336</v>
       </c>
       <c r="E41" t="n">
-        <v>100.46581136</v>
+        <v>100.09472484</v>
       </c>
       <c r="F41" t="n">
-        <v>100.066283</v>
+        <v>99.98722058</v>
       </c>
       <c r="G41" t="n">
-        <v>100.43965018</v>
+        <v>100.06339376</v>
       </c>
       <c r="H41" t="n">
-        <v>100.20544235</v>
+        <v>100.0282237</v>
       </c>
       <c r="I41" t="n">
-        <v>99.80597397</v>
+        <v>100.07288092</v>
       </c>
       <c r="J41" t="n">
-        <v>101.09867558</v>
+        <v>100.3097812</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2019年2月</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>101.16300323</v>
+        <v>100.17158429</v>
       </c>
       <c r="C42" t="n">
-        <v>100.29865129</v>
+        <v>99.98955798</v>
       </c>
       <c r="D42" t="n">
-        <v>100.85933702</v>
+        <v>100.05866506</v>
       </c>
       <c r="E42" t="n">
-        <v>100.23067048</v>
+        <v>100.050857</v>
       </c>
       <c r="F42" t="n">
-        <v>100.11028961</v>
+        <v>99.98489342000001</v>
       </c>
       <c r="G42" t="n">
-        <v>100.52660434</v>
+        <v>99.9553531</v>
       </c>
       <c r="H42" t="n">
-        <v>100.12557688</v>
+        <v>100.02232469</v>
       </c>
       <c r="I42" t="n">
-        <v>99.62150613999999</v>
+        <v>100.18211797</v>
       </c>
       <c r="J42" t="n">
-        <v>102.03381414</v>
+        <v>100.09024555</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2019年3月</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>99.75667919999999</v>
+        <v>99.29338777</v>
       </c>
       <c r="C43" t="n">
-        <v>99.19353129</v>
+        <v>100.44716069</v>
       </c>
       <c r="D43" t="n">
-        <v>99.68548491999999</v>
+        <v>99.84121817</v>
       </c>
       <c r="E43" t="n">
-        <v>100.13238146</v>
+        <v>100.07385093</v>
       </c>
       <c r="F43" t="n">
-        <v>99.86202392</v>
+        <v>99.70203549999999</v>
       </c>
       <c r="G43" t="n">
-        <v>99.569508</v>
+        <v>99.94828849</v>
       </c>
       <c r="H43" t="n">
-        <v>99.9118933</v>
+        <v>99.9860453</v>
       </c>
       <c r="I43" t="n">
-        <v>100.15031528</v>
+        <v>99.99710754</v>
       </c>
       <c r="J43" t="n">
-        <v>99.34337216999999</v>
+        <v>99.91011564</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2019年4月</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>99.94145159999999</v>
+        <v>99.83621671</v>
       </c>
       <c r="C44" t="n">
-        <v>100.12285704</v>
+        <v>100.69096575</v>
       </c>
       <c r="D44" t="n">
-        <v>100.11421336</v>
+        <v>100.33269618</v>
       </c>
       <c r="E44" t="n">
-        <v>100.09472484</v>
+        <v>100.02976903</v>
       </c>
       <c r="F44" t="n">
-        <v>99.98722058</v>
+        <v>99.99260534</v>
       </c>
       <c r="G44" t="n">
-        <v>100.06339376</v>
+        <v>100.42915574</v>
       </c>
       <c r="H44" t="n">
-        <v>100.0282237</v>
+        <v>100.0373568</v>
       </c>
       <c r="I44" t="n">
-        <v>100.07288092</v>
+        <v>99.61330472</v>
       </c>
       <c r="J44" t="n">
-        <v>100.3097812</v>
+        <v>100.98073627</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2019年5月</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>100.17158429</v>
+        <v>99.78765807000001</v>
       </c>
       <c r="C45" t="n">
-        <v>99.98955798</v>
+        <v>101.04219486</v>
       </c>
       <c r="D45" t="n">
-        <v>100.05866506</v>
+        <v>100.97129859</v>
       </c>
       <c r="E45" t="n">
-        <v>100.050857</v>
+        <v>100.15223791</v>
       </c>
       <c r="F45" t="n">
-        <v>99.98489342000001</v>
+        <v>100.12863026</v>
       </c>
       <c r="G45" t="n">
-        <v>99.9553531</v>
+        <v>100.07859596</v>
       </c>
       <c r="H45" t="n">
-        <v>100.02232469</v>
+        <v>100.07763406</v>
       </c>
       <c r="I45" t="n">
-        <v>100.18211797</v>
+        <v>99.35563931</v>
       </c>
       <c r="J45" t="n">
-        <v>100.09024555</v>
+        <v>103.0273808</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2019年6月</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>99.29338777</v>
+        <v>99.78728067</v>
       </c>
       <c r="C46" t="n">
-        <v>100.44716069</v>
+        <v>100.79339548</v>
       </c>
       <c r="D46" t="n">
-        <v>99.84121817</v>
+        <v>101.30744476</v>
       </c>
       <c r="E46" t="n">
-        <v>100.07385093</v>
+        <v>100.08719831</v>
       </c>
       <c r="F46" t="n">
-        <v>99.70203549999999</v>
+        <v>100.16847661</v>
       </c>
       <c r="G46" t="n">
-        <v>99.94828849</v>
+        <v>100.68449309</v>
       </c>
       <c r="H46" t="n">
-        <v>99.9860453</v>
+        <v>99.97531931</v>
       </c>
       <c r="I46" t="n">
-        <v>99.99710754</v>
+        <v>100.47969176</v>
       </c>
       <c r="J46" t="n">
-        <v>99.91011564</v>
+        <v>103.5864137</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2019年7月</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>99.83621671</v>
+        <v>100.04556639</v>
       </c>
       <c r="C47" t="n">
-        <v>100.69096575</v>
+        <v>100.20190018</v>
       </c>
       <c r="D47" t="n">
-        <v>100.33269618</v>
+        <v>101.18517737</v>
       </c>
       <c r="E47" t="n">
-        <v>100.02976903</v>
+        <v>100.11598976</v>
       </c>
       <c r="F47" t="n">
-        <v>99.99260534</v>
+        <v>100.03769701</v>
       </c>
       <c r="G47" t="n">
-        <v>100.42915574</v>
+        <v>100.05181577</v>
       </c>
       <c r="H47" t="n">
-        <v>100.0373568</v>
+        <v>100.02991744</v>
       </c>
       <c r="I47" t="n">
-        <v>99.61330472</v>
+        <v>100.40614475</v>
       </c>
       <c r="J47" t="n">
-        <v>100.98073627</v>
+        <v>103.39143124</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2019年8月</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>99.78765807000001</v>
+        <v>99.88687314000001</v>
       </c>
       <c r="C48" t="n">
-        <v>101.04219486</v>
+        <v>99.73161331999999</v>
       </c>
       <c r="D48" t="n">
-        <v>100.97129859</v>
+        <v>100.51376522</v>
       </c>
       <c r="E48" t="n">
-        <v>100.15223791</v>
+        <v>100.04957512</v>
       </c>
       <c r="F48" t="n">
-        <v>100.12863026</v>
+        <v>100.07036928</v>
       </c>
       <c r="G48" t="n">
-        <v>100.07859596</v>
+        <v>99.74251080000001</v>
       </c>
       <c r="H48" t="n">
-        <v>100.07763406</v>
+        <v>99.97110739999999</v>
       </c>
       <c r="I48" t="n">
-        <v>99.35563931</v>
+        <v>100.35667893</v>
       </c>
       <c r="J48" t="n">
-        <v>103.0273808</v>
+        <v>101.53994071</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2019年9月</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>99.78728067</v>
+        <v>100.16671779</v>
       </c>
       <c r="C49" t="n">
-        <v>100.79339548</v>
+        <v>100.02636163</v>
       </c>
       <c r="D49" t="n">
-        <v>101.30744476</v>
+        <v>99.90331725999999</v>
       </c>
       <c r="E49" t="n">
-        <v>100.08719831</v>
+        <v>100.24308157</v>
       </c>
       <c r="F49" t="n">
-        <v>100.16847661</v>
+        <v>100.20019114</v>
       </c>
       <c r="G49" t="n">
-        <v>100.68449309</v>
+        <v>100.01608745</v>
       </c>
       <c r="H49" t="n">
-        <v>99.97531931</v>
+        <v>100.01908508</v>
       </c>
       <c r="I49" t="n">
-        <v>100.47969176</v>
+        <v>100.15968121</v>
       </c>
       <c r="J49" t="n">
-        <v>103.5864137</v>
+        <v>99.43882682</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2020年10月</t>
+          <t>2020-01</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>99.7</v>
+        <v>101.12277912</v>
       </c>
       <c r="C50" t="n">
-        <v>98.40000000000001</v>
+        <v>101.71048785</v>
       </c>
       <c r="D50" t="n">
-        <v>99.5</v>
+        <v>101.35499697</v>
       </c>
       <c r="E50" t="n">
-        <v>100.1</v>
+        <v>100.60407056</v>
       </c>
       <c r="F50" t="n">
-        <v>100.2</v>
+        <v>100.08288937</v>
       </c>
       <c r="G50" t="n">
-        <v>100.2</v>
+        <v>100.43124616</v>
       </c>
       <c r="H50" t="n">
-        <v>100.1</v>
+        <v>100.06882023</v>
       </c>
       <c r="I50" t="n">
-        <v>100.4</v>
+        <v>99.70969148</v>
       </c>
       <c r="J50" t="n">
-        <v>98.5</v>
+        <v>103.19495357</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2020年11月</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>99.90000000000001</v>
+        <v>98.83845008</v>
       </c>
       <c r="C51" t="n">
-        <v>99.59999999999999</v>
+        <v>99.77572410000001</v>
       </c>
       <c r="D51" t="n">
-        <v>99.40000000000001</v>
+        <v>100.87677762</v>
       </c>
       <c r="E51" t="n">
-        <v>100</v>
+        <v>100.25575325</v>
       </c>
       <c r="F51" t="n">
-        <v>100.1</v>
+        <v>99.87102851</v>
       </c>
       <c r="G51" t="n">
-        <v>99.8</v>
+        <v>99.99927074999999</v>
       </c>
       <c r="H51" t="n">
-        <v>99.90000000000001</v>
+        <v>99.91337832000001</v>
       </c>
       <c r="I51" t="n">
-        <v>100.4</v>
+        <v>99.61063163</v>
       </c>
       <c r="J51" t="n">
-        <v>98.09999999999999</v>
+        <v>103.01025718</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2020年12月</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>100.8</v>
+        <v>97.90029260999999</v>
       </c>
       <c r="C52" t="n">
-        <v>99.59999999999999</v>
+        <v>100.14872444</v>
       </c>
       <c r="D52" t="n">
-        <v>100.9</v>
+        <v>98.70388231</v>
       </c>
       <c r="E52" t="n">
-        <v>100</v>
+        <v>100.16486062</v>
       </c>
       <c r="F52" t="n">
-        <v>100.2</v>
+        <v>99.4789655</v>
       </c>
       <c r="G52" t="n">
-        <v>100</v>
+        <v>99.96822576</v>
       </c>
       <c r="H52" t="n">
-        <v>100</v>
+        <v>99.95528578</v>
       </c>
       <c r="I52" t="n">
-        <v>100.3</v>
+        <v>99.79288235999999</v>
       </c>
       <c r="J52" t="n">
-        <v>102.2</v>
+        <v>97.24866829</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2020年1月</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>101.12277912</v>
+        <v>98.6968421</v>
       </c>
       <c r="C53" t="n">
-        <v>101.71048785</v>
+        <v>100.05917806</v>
       </c>
       <c r="D53" t="n">
-        <v>101.35499697</v>
+        <v>98.96184182</v>
       </c>
       <c r="E53" t="n">
-        <v>100.60407056</v>
+        <v>100.30359031</v>
       </c>
       <c r="F53" t="n">
-        <v>100.08288937</v>
+        <v>99.65660634</v>
       </c>
       <c r="G53" t="n">
-        <v>100.43124616</v>
+        <v>99.92643529</v>
       </c>
       <c r="H53" t="n">
-        <v>100.06882023</v>
+        <v>99.89357982999999</v>
       </c>
       <c r="I53" t="n">
-        <v>99.70969148</v>
+        <v>99.80657668000001</v>
       </c>
       <c r="J53" t="n">
-        <v>103.19495357</v>
+        <v>97.59428311000001</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2020年2月</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>98.83845008</v>
+        <v>99.81299882</v>
       </c>
       <c r="C54" t="n">
-        <v>99.77572410000001</v>
+        <v>100.39986138</v>
       </c>
       <c r="D54" t="n">
-        <v>100.87677762</v>
+        <v>99.06468787</v>
       </c>
       <c r="E54" t="n">
-        <v>100.25575325</v>
+        <v>100.19442448</v>
       </c>
       <c r="F54" t="n">
-        <v>99.87102851</v>
+        <v>99.77997812</v>
       </c>
       <c r="G54" t="n">
-        <v>99.99927074999999</v>
+        <v>100.05092861</v>
       </c>
       <c r="H54" t="n">
-        <v>99.91337832000001</v>
+        <v>99.98074453</v>
       </c>
       <c r="I54" t="n">
-        <v>99.61063163</v>
+        <v>100.17757529</v>
       </c>
       <c r="J54" t="n">
-        <v>103.01025718</v>
+        <v>97.32490253</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2020年3月</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>97.90029260999999</v>
+        <v>99.79739492</v>
       </c>
       <c r="C55" t="n">
-        <v>100.14872444</v>
+        <v>100.37493548</v>
       </c>
       <c r="D55" t="n">
-        <v>98.70388231</v>
+        <v>100.04322947</v>
       </c>
       <c r="E55" t="n">
-        <v>100.16486062</v>
+        <v>100.0118242</v>
       </c>
       <c r="F55" t="n">
-        <v>99.4789655</v>
+        <v>99.87578774000001</v>
       </c>
       <c r="G55" t="n">
-        <v>99.96822576</v>
+        <v>99.93572545000001</v>
       </c>
       <c r="H55" t="n">
-        <v>99.95528578</v>
+        <v>99.90807805999999</v>
       </c>
       <c r="I55" t="n">
-        <v>99.79288235999999</v>
+        <v>99.99871582</v>
       </c>
       <c r="J55" t="n">
-        <v>97.24866829</v>
+        <v>100.26939575</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2020年4月</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>98.6968421</v>
+        <v>100.25677403</v>
       </c>
       <c r="C56" t="n">
-        <v>100.05917806</v>
+        <v>100.44857884</v>
       </c>
       <c r="D56" t="n">
-        <v>98.96184182</v>
+        <v>100.79595048</v>
       </c>
       <c r="E56" t="n">
-        <v>100.30359031</v>
+        <v>99.90528928000001</v>
       </c>
       <c r="F56" t="n">
-        <v>99.65660634</v>
+        <v>99.93495837</v>
       </c>
       <c r="G56" t="n">
-        <v>99.92643529</v>
+        <v>99.9155343</v>
       </c>
       <c r="H56" t="n">
-        <v>99.89357982999999</v>
+        <v>99.93706967999999</v>
       </c>
       <c r="I56" t="n">
-        <v>99.80657668000001</v>
+        <v>99.62376335</v>
       </c>
       <c r="J56" t="n">
-        <v>97.59428311000001</v>
+        <v>102.42057901</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2020年5月</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>99.81299882</v>
+        <v>100.18069797</v>
       </c>
       <c r="C57" t="n">
-        <v>100.39986138</v>
+        <v>101.65629614</v>
       </c>
       <c r="D57" t="n">
-        <v>99.06468787</v>
+        <v>100.44643803</v>
       </c>
       <c r="E57" t="n">
-        <v>100.19442448</v>
+        <v>100.07657134</v>
       </c>
       <c r="F57" t="n">
-        <v>99.77997812</v>
+        <v>100.14979724</v>
       </c>
       <c r="G57" t="n">
-        <v>100.05092861</v>
+        <v>99.88315222</v>
       </c>
       <c r="H57" t="n">
-        <v>99.98074453</v>
+        <v>99.95507796</v>
       </c>
       <c r="I57" t="n">
-        <v>100.17757529</v>
+        <v>99.53582199</v>
       </c>
       <c r="J57" t="n">
-        <v>97.32490253</v>
+        <v>101.14810087</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2020年6月</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>99.79739492</v>
+        <v>99.9377169</v>
       </c>
       <c r="C58" t="n">
-        <v>100.37493548</v>
+        <v>99.86091806</v>
       </c>
       <c r="D58" t="n">
-        <v>100.04322947</v>
+        <v>100.23442717</v>
       </c>
       <c r="E58" t="n">
-        <v>100.0118242</v>
+        <v>100.0687393</v>
       </c>
       <c r="F58" t="n">
-        <v>99.87578774000001</v>
+        <v>100.13619377</v>
       </c>
       <c r="G58" t="n">
-        <v>99.93572545000001</v>
+        <v>101.1081568</v>
       </c>
       <c r="H58" t="n">
-        <v>99.90807805999999</v>
+        <v>100.04682872</v>
       </c>
       <c r="I58" t="n">
-        <v>99.99871582</v>
+        <v>100.52104361</v>
       </c>
       <c r="J58" t="n">
-        <v>100.26939575</v>
+        <v>100.15192325</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2020年7月</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>100.25677403</v>
+        <v>99.7</v>
       </c>
       <c r="C59" t="n">
-        <v>100.44857884</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>100.79595048</v>
+        <v>99.5</v>
       </c>
       <c r="E59" t="n">
-        <v>99.90528928000001</v>
+        <v>100.1</v>
       </c>
       <c r="F59" t="n">
-        <v>99.93495837</v>
+        <v>100.2</v>
       </c>
       <c r="G59" t="n">
-        <v>99.9155343</v>
+        <v>100.2</v>
       </c>
       <c r="H59" t="n">
-        <v>99.93706967999999</v>
+        <v>100.1</v>
       </c>
       <c r="I59" t="n">
-        <v>99.62376335</v>
+        <v>100.4</v>
       </c>
       <c r="J59" t="n">
-        <v>102.42057901</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2020年8月</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>100.18069797</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>101.65629614</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>100.44643803</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>100.07657134</v>
+        <v>100</v>
       </c>
       <c r="F60" t="n">
-        <v>100.14979724</v>
+        <v>100.1</v>
       </c>
       <c r="G60" t="n">
-        <v>99.88315222</v>
+        <v>99.8</v>
       </c>
       <c r="H60" t="n">
-        <v>99.95507796</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I60" t="n">
-        <v>99.53582199</v>
+        <v>100.4</v>
       </c>
       <c r="J60" t="n">
-        <v>101.14810087</v>
+        <v>98.09999999999999</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2020年9月</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>99.9377169</v>
+        <v>100.8</v>
       </c>
       <c r="C61" t="n">
-        <v>99.86091806</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>100.23442717</v>
+        <v>100.9</v>
       </c>
       <c r="E61" t="n">
-        <v>100.0687393</v>
+        <v>100</v>
       </c>
       <c r="F61" t="n">
-        <v>100.13619377</v>
+        <v>100.2</v>
       </c>
       <c r="G61" t="n">
-        <v>101.1081568</v>
+        <v>100</v>
       </c>
       <c r="H61" t="n">
-        <v>100.04682872</v>
+        <v>100</v>
       </c>
       <c r="I61" t="n">
-        <v>100.52104361</v>
+        <v>100.3</v>
       </c>
       <c r="J61" t="n">
-        <v>100.15192325</v>
+        <v>102.2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2021年10月</t>
+          <t>2021-01</t>
         </is>
       </c>
       <c r="B62" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="C62" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="D62" t="n">
         <v>101.1</v>
       </c>
-      <c r="C62" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="D62" t="n">
-        <v>100.7</v>
-      </c>
       <c r="E62" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="F62" t="n">
-        <v>101</v>
+        <v>100.2</v>
       </c>
       <c r="G62" t="n">
         <v>100.2</v>
@@ -2548,26 +2548,26 @@
         <v>100.2</v>
       </c>
       <c r="I62" t="n">
-        <v>100.3</v>
+        <v>99.7</v>
       </c>
       <c r="J62" t="n">
-        <v>100.9</v>
+        <v>102.8</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2021年11月</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>100.5</v>
+        <v>101.2</v>
       </c>
       <c r="C63" t="n">
-        <v>99.40000000000001</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>100.6</v>
+        <v>100.4</v>
       </c>
       <c r="E63" t="n">
         <v>100</v>
@@ -2576,356 +2576,356 @@
         <v>100</v>
       </c>
       <c r="G63" t="n">
-        <v>99.90000000000001</v>
+        <v>100.2</v>
       </c>
       <c r="H63" t="n">
-        <v>99.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="I63" t="n">
-        <v>100.6</v>
+        <v>99.5</v>
       </c>
       <c r="J63" t="n">
-        <v>101.9</v>
+        <v>100.9</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2021年12月</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>98.7</v>
+        <v>101.1</v>
       </c>
       <c r="C64" t="n">
-        <v>100.3</v>
+        <v>99.2</v>
       </c>
       <c r="D64" t="n">
-        <v>99.7</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="E64" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="F64" t="n">
-        <v>99.90000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="G64" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="H64" t="n">
-        <v>100.3</v>
+        <v>100.1</v>
       </c>
       <c r="I64" t="n">
         <v>100</v>
       </c>
       <c r="J64" t="n">
-        <v>99.7</v>
+        <v>97.40000000000001</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2021年1月</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>100.9</v>
+        <v>100.1</v>
       </c>
       <c r="C65" t="n">
-        <v>100.6</v>
+        <v>99.7</v>
       </c>
       <c r="D65" t="n">
-        <v>101.1</v>
+        <v>99.5</v>
       </c>
       <c r="E65" t="n">
         <v>100.2</v>
       </c>
       <c r="F65" t="n">
-        <v>100.2</v>
+        <v>100</v>
       </c>
       <c r="G65" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="H65" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="I65" t="n">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="J65" t="n">
-        <v>102.8</v>
+        <v>98.2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2021年2月</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>101.2</v>
+        <v>100.4</v>
       </c>
       <c r="C66" t="n">
-        <v>99.90000000000001</v>
+        <v>100.2</v>
       </c>
       <c r="D66" t="n">
-        <v>100.4</v>
+        <v>99.7</v>
       </c>
       <c r="E66" t="n">
         <v>100</v>
       </c>
       <c r="F66" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="G66" t="n">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="H66" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I66" t="n">
-        <v>99.5</v>
+        <v>100.4</v>
       </c>
       <c r="J66" t="n">
-        <v>100.9</v>
+        <v>98.59999999999999</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2021年3月</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>101.1</v>
+        <v>100.2</v>
       </c>
       <c r="C67" t="n">
-        <v>99.2</v>
+        <v>100.3</v>
       </c>
       <c r="D67" t="n">
-        <v>99.40000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="E67" t="n">
         <v>100.1</v>
       </c>
       <c r="F67" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="G67" t="n">
-        <v>100.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="H67" t="n">
-        <v>100.1</v>
+        <v>99.8</v>
       </c>
       <c r="I67" t="n">
         <v>100</v>
       </c>
       <c r="J67" t="n">
-        <v>97.40000000000001</v>
+        <v>98.40000000000001</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2021年4月</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B68" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="C68" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="D68" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="E68" t="n">
         <v>100.1</v>
       </c>
-      <c r="C68" t="n">
+      <c r="F68" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="G68" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="H68" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="I68" t="n">
         <v>99.7</v>
       </c>
-      <c r="D68" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="E68" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="F68" t="n">
-        <v>100</v>
-      </c>
-      <c r="G68" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="H68" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="I68" t="n">
-        <v>100</v>
-      </c>
       <c r="J68" t="n">
-        <v>98.2</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2021年5月</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>100.4</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C69" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="D69" t="n">
         <v>100.2</v>
-      </c>
-      <c r="D69" t="n">
-        <v>99.7</v>
       </c>
       <c r="E69" t="n">
         <v>100</v>
       </c>
       <c r="F69" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="G69" t="n">
         <v>100.1</v>
       </c>
       <c r="H69" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="I69" t="n">
-        <v>100.4</v>
+        <v>99.8</v>
       </c>
       <c r="J69" t="n">
-        <v>98.59999999999999</v>
+        <v>100.7</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2021年6月</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>100.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C70" t="n">
         <v>100.3</v>
       </c>
       <c r="D70" t="n">
-        <v>99.5</v>
+        <v>100.1</v>
       </c>
       <c r="E70" t="n">
         <v>100.1</v>
       </c>
       <c r="F70" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="G70" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="H70" t="n">
         <v>100</v>
       </c>
-      <c r="G70" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="H70" t="n">
-        <v>99.8</v>
-      </c>
       <c r="I70" t="n">
-        <v>100</v>
+        <v>100.5</v>
       </c>
       <c r="J70" t="n">
-        <v>98.40000000000001</v>
+        <v>99.59999999999999</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2021年7月</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>101.1</v>
       </c>
       <c r="C71" t="n">
-        <v>100.3</v>
+        <v>100.1</v>
       </c>
       <c r="D71" t="n">
-        <v>100.2</v>
+        <v>100.7</v>
       </c>
       <c r="E71" t="n">
         <v>100.1</v>
       </c>
       <c r="F71" t="n">
-        <v>100.1</v>
+        <v>101</v>
       </c>
       <c r="G71" t="n">
-        <v>100.4</v>
+        <v>100.2</v>
       </c>
       <c r="H71" t="n">
-        <v>100.5</v>
+        <v>100.2</v>
       </c>
       <c r="I71" t="n">
-        <v>99.7</v>
+        <v>100.3</v>
       </c>
       <c r="J71" t="n">
-        <v>99.8</v>
+        <v>100.9</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2021年8月</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>99.59999999999999</v>
+        <v>100.5</v>
       </c>
       <c r="C72" t="n">
-        <v>99.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>100.2</v>
+        <v>100.6</v>
       </c>
       <c r="E72" t="n">
         <v>100</v>
       </c>
       <c r="F72" t="n">
-        <v>100.2</v>
+        <v>100</v>
       </c>
       <c r="G72" t="n">
-        <v>100.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="H72" t="n">
-        <v>100</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="I72" t="n">
-        <v>99.8</v>
+        <v>100.6</v>
       </c>
       <c r="J72" t="n">
-        <v>100.7</v>
+        <v>101.9</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2021年9月</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>99.90000000000001</v>
+        <v>98.7</v>
       </c>
       <c r="C73" t="n">
         <v>100.3</v>
       </c>
       <c r="D73" t="n">
-        <v>100.1</v>
+        <v>99.7</v>
       </c>
       <c r="E73" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="F73" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="G73" t="n">
+        <v>100</v>
+      </c>
+      <c r="H73" t="n">
         <v>100.3</v>
       </c>
-      <c r="G73" t="n">
-        <v>101.1</v>
-      </c>
-      <c r="H73" t="n">
+      <c r="I73" t="n">
         <v>100</v>
       </c>
-      <c r="I73" t="n">
-        <v>100.5</v>
-      </c>
       <c r="J73" t="n">
-        <v>99.59999999999999</v>
+        <v>99.7</v>
       </c>
     </row>
   </sheetData>

--- a/data_month/zb/价格指数/居民消费价格分类指数(上月=100)/农村居民消费价格分类指数(上月=100)(2016-).xlsx
+++ b/data_month/zb/价格指数/居民消费价格分类指数(上月=100)/农村居民消费价格分类指数(上月=100)(2016-).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J73"/>
+  <dimension ref="A1:J92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,2063 +483,2063 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2016-01</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99.97072279</v>
+        <v>100.0205318</v>
       </c>
       <c r="C2" t="n">
-        <v>100.42962941</v>
+        <v>99.79634371</v>
       </c>
       <c r="D2" t="n">
-        <v>100.49539154</v>
+        <v>99.91013006</v>
       </c>
       <c r="E2" t="n">
-        <v>100.10080563</v>
+        <v>100.6001148</v>
       </c>
       <c r="F2" t="n">
-        <v>100.07112782</v>
+        <v>100.3018555</v>
       </c>
       <c r="G2" t="n">
-        <v>100.30871457</v>
+        <v>99.97073663</v>
       </c>
       <c r="H2" t="n">
-        <v>99.99406930000001</v>
+        <v>100.0329538</v>
       </c>
       <c r="I2" t="n">
-        <v>99.83856883</v>
+        <v>100.711303099999</v>
       </c>
       <c r="J2" t="n">
-        <v>101.40132676</v>
+        <v>99.2066239699999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2016-02</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100.41308871</v>
+        <v>100.0651289</v>
       </c>
       <c r="C3" t="n">
-        <v>101.55148802</v>
+        <v>100.0535019</v>
       </c>
       <c r="D3" t="n">
-        <v>101.55109102</v>
+        <v>100.1583038</v>
       </c>
       <c r="E3" t="n">
-        <v>100.094564</v>
+        <v>100.3745128</v>
       </c>
       <c r="F3" t="n">
-        <v>100.08944531</v>
+        <v>100.4154948</v>
       </c>
       <c r="G3" t="n">
-        <v>100.22725619</v>
+        <v>99.91431093</v>
       </c>
       <c r="H3" t="n">
-        <v>99.9632617</v>
+        <v>100.0927961</v>
       </c>
       <c r="I3" t="n">
-        <v>99.52562238</v>
+        <v>100.6745545</v>
       </c>
       <c r="J3" t="n">
-        <v>104.55173535</v>
+        <v>99.95628785</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2016-03</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.39101162</v>
+        <v>100.5349066</v>
       </c>
       <c r="C4" t="n">
-        <v>99.95848011</v>
+        <v>100.0508008</v>
       </c>
       <c r="D4" t="n">
-        <v>99.55320516</v>
+        <v>100.2532377</v>
       </c>
       <c r="E4" t="n">
-        <v>100.21362654</v>
+        <v>100.2274989</v>
       </c>
       <c r="F4" t="n">
-        <v>100.15915841</v>
+        <v>100.2582431</v>
       </c>
       <c r="G4" t="n">
-        <v>99.89710712</v>
+        <v>100.0284138</v>
       </c>
       <c r="H4" t="n">
-        <v>100.01919618</v>
+        <v>100.1251148</v>
       </c>
       <c r="I4" t="n">
-        <v>100.14662668</v>
+        <v>100.3642925</v>
       </c>
       <c r="J4" t="n">
-        <v>98.69902956999999</v>
+        <v>100.2487423</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2016-04</t>
+          <t>2016-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100.01777375</v>
+        <v>99.97072279</v>
       </c>
       <c r="C5" t="n">
-        <v>99.99760147000001</v>
+        <v>100.42962941</v>
       </c>
       <c r="D5" t="n">
-        <v>99.82216003000001</v>
+        <v>100.49539154</v>
       </c>
       <c r="E5" t="n">
-        <v>100.20904728</v>
+        <v>100.10080563</v>
       </c>
       <c r="F5" t="n">
-        <v>99.98217674999999</v>
+        <v>100.07112782</v>
       </c>
       <c r="G5" t="n">
-        <v>100.04092408</v>
+        <v>100.30871457</v>
       </c>
       <c r="H5" t="n">
-        <v>99.99748972</v>
+        <v>99.99406930000001</v>
       </c>
       <c r="I5" t="n">
-        <v>100.24691381</v>
+        <v>99.83856883</v>
       </c>
       <c r="J5" t="n">
-        <v>99.33010327</v>
+        <v>101.40132676</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2016-05</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100.41616875</v>
+        <v>100.41308871</v>
       </c>
       <c r="C6" t="n">
-        <v>100.17390608</v>
+        <v>101.55148802</v>
       </c>
       <c r="D6" t="n">
-        <v>99.57558091999999</v>
+        <v>101.55109102</v>
       </c>
       <c r="E6" t="n">
-        <v>100.08295906</v>
+        <v>100.094564</v>
       </c>
       <c r="F6" t="n">
-        <v>99.95066679</v>
+        <v>100.08944531</v>
       </c>
       <c r="G6" t="n">
-        <v>100.00691872</v>
+        <v>100.22725619</v>
       </c>
       <c r="H6" t="n">
-        <v>100.0312283</v>
+        <v>99.9632617</v>
       </c>
       <c r="I6" t="n">
-        <v>100.28376587</v>
+        <v>99.52562238</v>
       </c>
       <c r="J6" t="n">
-        <v>98.45738951</v>
+        <v>104.55173535</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2016-06</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>100.62053066</v>
+        <v>99.39101162</v>
       </c>
       <c r="C7" t="n">
-        <v>100.16389419</v>
+        <v>99.95848011</v>
       </c>
       <c r="D7" t="n">
-        <v>99.85907331999999</v>
+        <v>99.55320516</v>
       </c>
       <c r="E7" t="n">
-        <v>100.26725492</v>
+        <v>100.21362654</v>
       </c>
       <c r="F7" t="n">
-        <v>100.0010084</v>
+        <v>100.15915841</v>
       </c>
       <c r="G7" t="n">
-        <v>100.03928614</v>
+        <v>99.89710712</v>
       </c>
       <c r="H7" t="n">
-        <v>100.05651998</v>
+        <v>100.01919618</v>
       </c>
       <c r="I7" t="n">
-        <v>99.91716753999999</v>
+        <v>100.14662668</v>
       </c>
       <c r="J7" t="n">
-        <v>99.23239742</v>
+        <v>98.69902956999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2016-07</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>99.92484845</v>
+        <v>100.01777375</v>
       </c>
       <c r="C8" t="n">
-        <v>101.04591461</v>
+        <v>99.99760147000001</v>
       </c>
       <c r="D8" t="n">
-        <v>99.95645381999999</v>
+        <v>99.82216003000001</v>
       </c>
       <c r="E8" t="n">
-        <v>100.21237752</v>
+        <v>100.20904728</v>
       </c>
       <c r="F8" t="n">
-        <v>100.02334323</v>
+        <v>99.98217674999999</v>
       </c>
       <c r="G8" t="n">
-        <v>100.38722871</v>
+        <v>100.04092408</v>
       </c>
       <c r="H8" t="n">
-        <v>100.01828258</v>
+        <v>99.99748972</v>
       </c>
       <c r="I8" t="n">
-        <v>99.60575326</v>
+        <v>100.24691381</v>
       </c>
       <c r="J8" t="n">
-        <v>99.67783755000001</v>
+        <v>99.33010327</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2016-08</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>99.45537858</v>
+        <v>100.41616875</v>
       </c>
       <c r="C9" t="n">
-        <v>100.17255947</v>
+        <v>100.17390608</v>
       </c>
       <c r="D9" t="n">
-        <v>100.06645051</v>
+        <v>99.57558091999999</v>
       </c>
       <c r="E9" t="n">
-        <v>100.31662731</v>
+        <v>100.08295906</v>
       </c>
       <c r="F9" t="n">
-        <v>100.13542155</v>
+        <v>99.95066679</v>
       </c>
       <c r="G9" t="n">
-        <v>100.00770509</v>
+        <v>100.00691872</v>
       </c>
       <c r="H9" t="n">
-        <v>99.97757888</v>
+        <v>100.0312283</v>
       </c>
       <c r="I9" t="n">
-        <v>99.59535867</v>
+        <v>100.28376587</v>
       </c>
       <c r="J9" t="n">
-        <v>100.3135921</v>
+        <v>98.45738951</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2016-09</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>100.277470199999</v>
+        <v>100.62053066</v>
       </c>
       <c r="C10" t="n">
-        <v>100.0860349</v>
+        <v>100.16389419</v>
       </c>
       <c r="D10" t="n">
-        <v>100.6807354</v>
+        <v>99.85907331999999</v>
       </c>
       <c r="E10" t="n">
-        <v>100.2262053</v>
+        <v>100.26725492</v>
       </c>
       <c r="F10" t="n">
-        <v>100.3309488</v>
+        <v>100.0010084</v>
       </c>
       <c r="G10" t="n">
-        <v>101.482503199999</v>
+        <v>100.03928614</v>
       </c>
       <c r="H10" t="n">
-        <v>100.0036221</v>
+        <v>100.05651998</v>
       </c>
       <c r="I10" t="n">
-        <v>100.484780499999</v>
+        <v>99.91716753999999</v>
       </c>
       <c r="J10" t="n">
-        <v>101.1227966</v>
+        <v>99.23239742</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2016-10</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>100.0205318</v>
+        <v>99.92484845</v>
       </c>
       <c r="C11" t="n">
-        <v>99.79634371</v>
+        <v>101.04591461</v>
       </c>
       <c r="D11" t="n">
-        <v>99.91013006</v>
+        <v>99.95645381999999</v>
       </c>
       <c r="E11" t="n">
-        <v>100.6001148</v>
+        <v>100.21237752</v>
       </c>
       <c r="F11" t="n">
-        <v>100.3018555</v>
+        <v>100.02334323</v>
       </c>
       <c r="G11" t="n">
-        <v>99.97073663</v>
+        <v>100.38722871</v>
       </c>
       <c r="H11" t="n">
-        <v>100.0329538</v>
+        <v>100.01828258</v>
       </c>
       <c r="I11" t="n">
-        <v>100.711303099999</v>
+        <v>99.60575326</v>
       </c>
       <c r="J11" t="n">
-        <v>99.2066239699999</v>
+        <v>99.67783755000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2016-11</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>100.0651289</v>
+        <v>99.45537858</v>
       </c>
       <c r="C12" t="n">
-        <v>100.0535019</v>
+        <v>100.17255947</v>
       </c>
       <c r="D12" t="n">
-        <v>100.1583038</v>
+        <v>100.06645051</v>
       </c>
       <c r="E12" t="n">
-        <v>100.3745128</v>
+        <v>100.31662731</v>
       </c>
       <c r="F12" t="n">
-        <v>100.4154948</v>
+        <v>100.13542155</v>
       </c>
       <c r="G12" t="n">
-        <v>99.91431093</v>
+        <v>100.00770509</v>
       </c>
       <c r="H12" t="n">
-        <v>100.0927961</v>
+        <v>99.97757888</v>
       </c>
       <c r="I12" t="n">
-        <v>100.6745545</v>
+        <v>99.59535867</v>
       </c>
       <c r="J12" t="n">
-        <v>99.95628785</v>
+        <v>100.3135921</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2016-12</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>100.5349066</v>
+        <v>100.277470199999</v>
       </c>
       <c r="C13" t="n">
-        <v>100.0508008</v>
+        <v>100.0860349</v>
       </c>
       <c r="D13" t="n">
-        <v>100.2532377</v>
+        <v>100.6807354</v>
       </c>
       <c r="E13" t="n">
-        <v>100.2274989</v>
+        <v>100.2262053</v>
       </c>
       <c r="F13" t="n">
-        <v>100.2582431</v>
+        <v>100.3309488</v>
       </c>
       <c r="G13" t="n">
-        <v>100.0284138</v>
+        <v>101.482503199999</v>
       </c>
       <c r="H13" t="n">
-        <v>100.1251148</v>
+        <v>100.0036221</v>
       </c>
       <c r="I13" t="n">
-        <v>100.3642925</v>
+        <v>100.484780499999</v>
       </c>
       <c r="J13" t="n">
-        <v>100.2487423</v>
+        <v>101.1227966</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2017-01</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>101.3692622</v>
+        <v>100.3917563</v>
       </c>
       <c r="C14" t="n">
-        <v>101.3296835</v>
+        <v>99.98605753</v>
       </c>
       <c r="D14" t="n">
-        <v>100.8516626</v>
+        <v>100.1966838</v>
       </c>
       <c r="E14" t="n">
-        <v>100.2345033</v>
+        <v>100.3686284</v>
       </c>
       <c r="F14" t="n">
-        <v>100.388515</v>
+        <v>100.3986448</v>
       </c>
       <c r="G14" t="n">
-        <v>100.4488534</v>
+        <v>99.98743104</v>
       </c>
       <c r="H14" t="n">
-        <v>100.1808453</v>
+        <v>100.1774365</v>
       </c>
       <c r="I14" t="n">
-        <v>99.75051478</v>
+        <v>100.7673089</v>
       </c>
       <c r="J14" t="n">
-        <v>101.6213587</v>
+        <v>99.90435313</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2017-02</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>99.95300066999999</v>
+        <v>100.4059776</v>
       </c>
       <c r="C15" t="n">
-        <v>99.73137139000001</v>
+        <v>100.1389582</v>
       </c>
       <c r="D15" t="n">
-        <v>99.89347902999999</v>
+        <v>100.0344093</v>
       </c>
       <c r="E15" t="n">
-        <v>100.25171447</v>
+        <v>100.1749715</v>
       </c>
       <c r="F15" t="n">
-        <v>100.24186322</v>
+        <v>100.3287234</v>
       </c>
       <c r="G15" t="n">
-        <v>99.99687332000001</v>
+        <v>99.90596026999999</v>
       </c>
       <c r="H15" t="n">
-        <v>100.10856537</v>
+        <v>100.0827247</v>
       </c>
       <c r="I15" t="n">
-        <v>99.26164337</v>
+        <v>100.5848017</v>
       </c>
       <c r="J15" t="n">
-        <v>99.62367458</v>
+        <v>99.55721352</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2017-03</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>99.5204705</v>
+        <v>100.2563381</v>
       </c>
       <c r="C16" t="n">
-        <v>100.0395077</v>
+        <v>99.95306913</v>
       </c>
       <c r="D16" t="n">
-        <v>99.61679911</v>
+        <v>100.395861</v>
       </c>
       <c r="E16" t="n">
-        <v>100.5166449</v>
+        <v>100.1665037</v>
       </c>
       <c r="F16" t="n">
-        <v>100.1716558</v>
+        <v>100.3376999</v>
       </c>
       <c r="G16" t="n">
-        <v>100.0485581</v>
+        <v>100.0530487</v>
       </c>
       <c r="H16" t="n">
-        <v>100.1328066</v>
+        <v>100.1960071</v>
       </c>
       <c r="I16" t="n">
-        <v>100.350167</v>
+        <v>100.2793002</v>
       </c>
       <c r="J16" t="n">
-        <v>98.58596287</v>
+        <v>100.7894343</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2017-04</t>
+          <t>2017-01</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>99.77565045999999</v>
+        <v>101.3692622</v>
       </c>
       <c r="C17" t="n">
-        <v>100.2834852</v>
+        <v>101.3296835</v>
       </c>
       <c r="D17" t="n">
-        <v>99.96108786000001</v>
+        <v>100.8516626</v>
       </c>
       <c r="E17" t="n">
-        <v>100.4873994</v>
+        <v>100.2345033</v>
       </c>
       <c r="F17" t="n">
-        <v>100.0917778</v>
+        <v>100.388515</v>
       </c>
       <c r="G17" t="n">
-        <v>100.0929488</v>
+        <v>100.4488534</v>
       </c>
       <c r="H17" t="n">
-        <v>100.1997257</v>
+        <v>100.1808453</v>
       </c>
       <c r="I17" t="n">
-        <v>100.28585</v>
+        <v>99.75051478</v>
       </c>
       <c r="J17" t="n">
-        <v>99.59508246</v>
+        <v>101.6213587</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2017-05</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>99.79216533</v>
+        <v>99.95300066999999</v>
       </c>
       <c r="C18" t="n">
-        <v>100.059827</v>
+        <v>99.73137139000001</v>
       </c>
       <c r="D18" t="n">
-        <v>99.86737173</v>
+        <v>99.89347902999999</v>
       </c>
       <c r="E18" t="n">
-        <v>100.3609528</v>
+        <v>100.25171447</v>
       </c>
       <c r="F18" t="n">
-        <v>100.1122801</v>
+        <v>100.24186322</v>
       </c>
       <c r="G18" t="n">
-        <v>100.0199351</v>
+        <v>99.99687332000001</v>
       </c>
       <c r="H18" t="n">
-        <v>100.1576781</v>
+        <v>100.10856537</v>
       </c>
       <c r="I18" t="n">
-        <v>100.3079593</v>
+        <v>99.26164337</v>
       </c>
       <c r="J18" t="n">
-        <v>99.35926920999999</v>
+        <v>99.62367458</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2017-06</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>99.64833441</v>
+        <v>99.5204705</v>
       </c>
       <c r="C19" t="n">
-        <v>100.0646847</v>
+        <v>100.0395077</v>
       </c>
       <c r="D19" t="n">
-        <v>99.76223494</v>
+        <v>99.61679911</v>
       </c>
       <c r="E19" t="n">
-        <v>100.2675512</v>
+        <v>100.5166449</v>
       </c>
       <c r="F19" t="n">
-        <v>100.1081119</v>
+        <v>100.1716558</v>
       </c>
       <c r="G19" t="n">
-        <v>100.0538641</v>
+        <v>100.0485581</v>
       </c>
       <c r="H19" t="n">
-        <v>100.1627679</v>
+        <v>100.1328066</v>
       </c>
       <c r="I19" t="n">
-        <v>99.85832317000001</v>
+        <v>100.350167</v>
       </c>
       <c r="J19" t="n">
-        <v>99.19295377</v>
+        <v>98.58596287</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2017-07</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>99.58437339</v>
+        <v>99.77565045999999</v>
       </c>
       <c r="C20" t="n">
-        <v>99.97892005</v>
+        <v>100.2834852</v>
       </c>
       <c r="D20" t="n">
-        <v>100.0286259</v>
+        <v>99.96108786000001</v>
       </c>
       <c r="E20" t="n">
-        <v>100.4957834</v>
+        <v>100.4873994</v>
       </c>
       <c r="F20" t="n">
-        <v>100.141793</v>
+        <v>100.0917778</v>
       </c>
       <c r="G20" t="n">
-        <v>100.367776</v>
+        <v>100.0929488</v>
       </c>
       <c r="H20" t="n">
-        <v>100.1382445</v>
+        <v>100.1997257</v>
       </c>
       <c r="I20" t="n">
-        <v>99.60620016999999</v>
+        <v>100.28585</v>
       </c>
       <c r="J20" t="n">
-        <v>99.93479762</v>
+        <v>99.59508246</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2017-08</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>100.4494804</v>
+        <v>99.79216533</v>
       </c>
       <c r="C21" t="n">
-        <v>99.97496022</v>
+        <v>100.059827</v>
       </c>
       <c r="D21" t="n">
-        <v>100.5031578</v>
+        <v>99.86737173</v>
       </c>
       <c r="E21" t="n">
-        <v>100.3748696</v>
+        <v>100.3609528</v>
       </c>
       <c r="F21" t="n">
-        <v>100.458661</v>
+        <v>100.1122801</v>
       </c>
       <c r="G21" t="n">
-        <v>99.99308463</v>
+        <v>100.0199351</v>
       </c>
       <c r="H21" t="n">
-        <v>100.1515015</v>
+        <v>100.1576781</v>
       </c>
       <c r="I21" t="n">
-        <v>99.67200261000001</v>
+        <v>100.3079593</v>
       </c>
       <c r="J21" t="n">
-        <v>101.086938</v>
+        <v>99.35926920999999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2017-09</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>100.1985404</v>
+        <v>99.64833441</v>
       </c>
       <c r="C22" t="n">
-        <v>100.2622839</v>
+        <v>100.0646847</v>
       </c>
       <c r="D22" t="n">
-        <v>100.5614961</v>
+        <v>99.76223494</v>
       </c>
       <c r="E22" t="n">
-        <v>100.873904</v>
+        <v>100.2675512</v>
       </c>
       <c r="F22" t="n">
-        <v>100.4960271</v>
+        <v>100.1081119</v>
       </c>
       <c r="G22" t="n">
-        <v>101.15723</v>
+        <v>100.0538641</v>
       </c>
       <c r="H22" t="n">
-        <v>100.0942164</v>
+        <v>100.1627679</v>
       </c>
       <c r="I22" t="n">
-        <v>100.6359758</v>
+        <v>99.85832317000001</v>
       </c>
       <c r="J22" t="n">
-        <v>100.5249808</v>
+        <v>99.19295377</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2017-10</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>100.3917563</v>
+        <v>99.58437339</v>
       </c>
       <c r="C23" t="n">
-        <v>99.98605753</v>
+        <v>99.97892005</v>
       </c>
       <c r="D23" t="n">
-        <v>100.1966838</v>
+        <v>100.0286259</v>
       </c>
       <c r="E23" t="n">
-        <v>100.3686284</v>
+        <v>100.4957834</v>
       </c>
       <c r="F23" t="n">
-        <v>100.3986448</v>
+        <v>100.141793</v>
       </c>
       <c r="G23" t="n">
-        <v>99.98743104</v>
+        <v>100.367776</v>
       </c>
       <c r="H23" t="n">
-        <v>100.1774365</v>
+        <v>100.1382445</v>
       </c>
       <c r="I23" t="n">
-        <v>100.7673089</v>
+        <v>99.60620016999999</v>
       </c>
       <c r="J23" t="n">
-        <v>99.90435313</v>
+        <v>99.93479762</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2017-11</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>100.4059776</v>
+        <v>100.4494804</v>
       </c>
       <c r="C24" t="n">
-        <v>100.1389582</v>
+        <v>99.97496022</v>
       </c>
       <c r="D24" t="n">
-        <v>100.0344093</v>
+        <v>100.5031578</v>
       </c>
       <c r="E24" t="n">
-        <v>100.1749715</v>
+        <v>100.3748696</v>
       </c>
       <c r="F24" t="n">
-        <v>100.3287234</v>
+        <v>100.458661</v>
       </c>
       <c r="G24" t="n">
-        <v>99.90596026999999</v>
+        <v>99.99308463</v>
       </c>
       <c r="H24" t="n">
-        <v>100.0827247</v>
+        <v>100.1515015</v>
       </c>
       <c r="I24" t="n">
-        <v>100.5848017</v>
+        <v>99.67200261000001</v>
       </c>
       <c r="J24" t="n">
-        <v>99.55721352</v>
+        <v>101.086938</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2017-12</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>100.2563381</v>
+        <v>100.1985404</v>
       </c>
       <c r="C25" t="n">
-        <v>99.95306913</v>
+        <v>100.2622839</v>
       </c>
       <c r="D25" t="n">
-        <v>100.395861</v>
+        <v>100.5614961</v>
       </c>
       <c r="E25" t="n">
-        <v>100.1665037</v>
+        <v>100.873904</v>
       </c>
       <c r="F25" t="n">
-        <v>100.3376999</v>
+        <v>100.4960271</v>
       </c>
       <c r="G25" t="n">
-        <v>100.0530487</v>
+        <v>101.15723</v>
       </c>
       <c r="H25" t="n">
-        <v>100.1960071</v>
+        <v>100.0942164</v>
       </c>
       <c r="I25" t="n">
-        <v>100.2793002</v>
+        <v>100.6359758</v>
       </c>
       <c r="J25" t="n">
-        <v>100.7894343</v>
+        <v>100.5249808</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2018-01</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>100.4506285</v>
+        <v>100.71165486</v>
       </c>
       <c r="C26" t="n">
-        <v>100.602013</v>
+        <v>100.24246761</v>
       </c>
       <c r="D26" t="n">
-        <v>100.6296124</v>
+        <v>100.2089149</v>
       </c>
       <c r="E26" t="n">
-        <v>100.3875426</v>
+        <v>100.18443181</v>
       </c>
       <c r="F26" t="n">
-        <v>100.2890269</v>
+        <v>100.39457371</v>
       </c>
       <c r="G26" t="n">
-        <v>100.1990018</v>
+        <v>100.04882557</v>
       </c>
       <c r="H26" t="n">
-        <v>100.2363703</v>
+        <v>100.1407802</v>
       </c>
       <c r="I26" t="n">
-        <v>99.96018345</v>
+        <v>100.86979858</v>
       </c>
       <c r="J26" t="n">
-        <v>101.3903269</v>
+        <v>99.82171513</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2018-02</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>100.9448706</v>
+        <v>99.02640842</v>
       </c>
       <c r="C27" t="n">
-        <v>100.8958066</v>
+        <v>100.28662118</v>
       </c>
       <c r="D27" t="n">
-        <v>101.1390031</v>
+        <v>99.70707422</v>
       </c>
       <c r="E27" t="n">
-        <v>100.1555932</v>
+        <v>100.11015684</v>
       </c>
       <c r="F27" t="n">
-        <v>100.1479291</v>
+        <v>100.10847324</v>
       </c>
       <c r="G27" t="n">
-        <v>100.5905923</v>
+        <v>99.84490884</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1169569</v>
+        <v>100.02491012</v>
       </c>
       <c r="I27" t="n">
-        <v>99.39040178</v>
+        <v>100.67745388</v>
       </c>
       <c r="J27" t="n">
-        <v>102.979704</v>
+        <v>99.19081405</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2018-03</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>98.58503348000001</v>
+        <v>98.19013121</v>
       </c>
       <c r="C28" t="n">
-        <v>99.23690053</v>
+        <v>100.21338044</v>
       </c>
       <c r="D28" t="n">
-        <v>98.84275027</v>
+        <v>100.04010453</v>
       </c>
       <c r="E28" t="n">
-        <v>100.2029114</v>
+        <v>100.14598769</v>
       </c>
       <c r="F28" t="n">
-        <v>100.0038151</v>
+        <v>100.11007032</v>
       </c>
       <c r="G28" t="n">
-        <v>99.73597872000001</v>
+        <v>99.95829795</v>
       </c>
       <c r="H28" t="n">
-        <v>100.0741698</v>
+        <v>100.12719958</v>
       </c>
       <c r="I28" t="n">
-        <v>100.2126814</v>
+        <v>100.34408937</v>
       </c>
       <c r="J28" t="n">
-        <v>96.90946572999999</v>
+        <v>100.59313123</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2018-04</t>
+          <t>2018-01</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>100.474155</v>
+        <v>100.4506285</v>
       </c>
       <c r="C29" t="n">
-        <v>100.0338458</v>
+        <v>100.602013</v>
       </c>
       <c r="D29" t="n">
-        <v>99.7</v>
+        <v>100.6296124</v>
       </c>
       <c r="E29" t="n">
-        <v>100.2087246</v>
+        <v>100.3875426</v>
       </c>
       <c r="F29" t="n">
-        <v>100.3214282</v>
+        <v>100.2890269</v>
       </c>
       <c r="G29" t="n">
-        <v>100.0642357</v>
+        <v>100.1990018</v>
       </c>
       <c r="H29" t="n">
-        <v>100.1481492</v>
+        <v>100.2363703</v>
       </c>
       <c r="I29" t="n">
-        <v>100.1524421</v>
+        <v>99.96018345</v>
       </c>
       <c r="J29" t="n">
-        <v>98.59227586</v>
+        <v>101.3903269</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2018-05</t>
+          <t>2018-02</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>100.5380153</v>
+        <v>100.9448706</v>
       </c>
       <c r="C30" t="n">
-        <v>99.98819476</v>
+        <v>100.8958066</v>
       </c>
       <c r="D30" t="n">
-        <v>99.90000000000001</v>
+        <v>101.1390031</v>
       </c>
       <c r="E30" t="n">
-        <v>100.326627</v>
+        <v>100.1555932</v>
       </c>
       <c r="F30" t="n">
-        <v>100.1548958</v>
+        <v>100.1479291</v>
       </c>
       <c r="G30" t="n">
-        <v>99.94992757</v>
+        <v>100.5905923</v>
       </c>
       <c r="H30" t="n">
-        <v>100.0999441</v>
+        <v>100.1169569</v>
       </c>
       <c r="I30" t="n">
-        <v>100.3060455</v>
+        <v>99.39040178</v>
       </c>
       <c r="J30" t="n">
-        <v>99.10764155</v>
+        <v>102.979704</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2018-06</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>100.25907182</v>
+        <v>98.58503348000001</v>
       </c>
       <c r="C31" t="n">
-        <v>100.00381343</v>
+        <v>99.23690053</v>
       </c>
       <c r="D31" t="n">
-        <v>99.94499908</v>
+        <v>98.84275027</v>
       </c>
       <c r="E31" t="n">
-        <v>100.15231436</v>
+        <v>100.2029114</v>
       </c>
       <c r="F31" t="n">
-        <v>100.12676783</v>
+        <v>100.0038151</v>
       </c>
       <c r="G31" t="n">
-        <v>100.07222368</v>
+        <v>99.73597872000001</v>
       </c>
       <c r="H31" t="n">
-        <v>100.11554941</v>
+        <v>100.0741698</v>
       </c>
       <c r="I31" t="n">
-        <v>99.97751627</v>
+        <v>100.2126814</v>
       </c>
       <c r="J31" t="n">
-        <v>99.54028105</v>
+        <v>96.90946572999999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2018-07</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>100.11872747</v>
+        <v>100.474155</v>
       </c>
       <c r="C32" t="n">
-        <v>100.01825354</v>
+        <v>100.0338458</v>
       </c>
       <c r="D32" t="n">
-        <v>100.14891163</v>
+        <v>99.7</v>
       </c>
       <c r="E32" t="n">
-        <v>100.21754165</v>
+        <v>100.2087246</v>
       </c>
       <c r="F32" t="n">
-        <v>100.16686471</v>
+        <v>100.3214282</v>
       </c>
       <c r="G32" t="n">
-        <v>100.4527813</v>
+        <v>100.0642357</v>
       </c>
       <c r="H32" t="n">
-        <v>100.02765592</v>
+        <v>100.1481492</v>
       </c>
       <c r="I32" t="n">
-        <v>99.57744079</v>
+        <v>100.1524421</v>
       </c>
       <c r="J32" t="n">
-        <v>100.18196109</v>
+        <v>98.59227586</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2018-08</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>100.07488651</v>
+        <v>100.5380153</v>
       </c>
       <c r="C33" t="n">
-        <v>100.01024246</v>
+        <v>99.98819476</v>
       </c>
       <c r="D33" t="n">
-        <v>100.76476934</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>100.29360392</v>
+        <v>100.326627</v>
       </c>
       <c r="F33" t="n">
-        <v>100.70761829</v>
+        <v>100.1548958</v>
       </c>
       <c r="G33" t="n">
-        <v>100.1308677</v>
+        <v>99.94992757</v>
       </c>
       <c r="H33" t="n">
-        <v>100.03720541</v>
+        <v>100.0999441</v>
       </c>
       <c r="I33" t="n">
-        <v>99.67102626</v>
+        <v>100.3060455</v>
       </c>
       <c r="J33" t="n">
-        <v>101.92563967</v>
+        <v>99.10764155</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2018-09</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.40768342</v>
+        <v>100.25907182</v>
       </c>
       <c r="C34" t="n">
-        <v>99.9441728</v>
+        <v>100.00381343</v>
       </c>
       <c r="D34" t="n">
-        <v>100.83213399</v>
+        <v>99.94499908</v>
       </c>
       <c r="E34" t="n">
-        <v>100.14678653</v>
+        <v>100.15231436</v>
       </c>
       <c r="F34" t="n">
-        <v>100.48248358</v>
+        <v>100.12676783</v>
       </c>
       <c r="G34" t="n">
-        <v>101.06063899</v>
+        <v>100.07222368</v>
       </c>
       <c r="H34" t="n">
-        <v>100.03413369</v>
+        <v>100.11554941</v>
       </c>
       <c r="I34" t="n">
-        <v>100.53849813</v>
+        <v>99.97751627</v>
       </c>
       <c r="J34" t="n">
-        <v>101.65775682</v>
+        <v>99.54028105</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2018-10</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>100.71165486</v>
+        <v>100.11872747</v>
       </c>
       <c r="C35" t="n">
-        <v>100.24246761</v>
+        <v>100.01825354</v>
       </c>
       <c r="D35" t="n">
-        <v>100.2089149</v>
+        <v>100.14891163</v>
       </c>
       <c r="E35" t="n">
-        <v>100.18443181</v>
+        <v>100.21754165</v>
       </c>
       <c r="F35" t="n">
-        <v>100.39457371</v>
+        <v>100.16686471</v>
       </c>
       <c r="G35" t="n">
-        <v>100.04882557</v>
+        <v>100.4527813</v>
       </c>
       <c r="H35" t="n">
-        <v>100.1407802</v>
+        <v>100.02765592</v>
       </c>
       <c r="I35" t="n">
-        <v>100.86979858</v>
+        <v>99.57744079</v>
       </c>
       <c r="J35" t="n">
-        <v>99.82171513</v>
+        <v>100.18196109</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2018-11</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>99.02640842</v>
+        <v>100.07488651</v>
       </c>
       <c r="C36" t="n">
-        <v>100.28662118</v>
+        <v>100.01024246</v>
       </c>
       <c r="D36" t="n">
-        <v>99.70707422</v>
+        <v>100.76476934</v>
       </c>
       <c r="E36" t="n">
-        <v>100.11015684</v>
+        <v>100.29360392</v>
       </c>
       <c r="F36" t="n">
-        <v>100.10847324</v>
+        <v>100.70761829</v>
       </c>
       <c r="G36" t="n">
-        <v>99.84490884</v>
+        <v>100.1308677</v>
       </c>
       <c r="H36" t="n">
-        <v>100.02491012</v>
+        <v>100.03720541</v>
       </c>
       <c r="I36" t="n">
-        <v>100.67745388</v>
+        <v>99.67102626</v>
       </c>
       <c r="J36" t="n">
-        <v>99.19081405</v>
+        <v>101.92563967</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2018-12</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>98.19013121</v>
+        <v>100.40768342</v>
       </c>
       <c r="C37" t="n">
-        <v>100.21338044</v>
+        <v>99.9441728</v>
       </c>
       <c r="D37" t="n">
-        <v>100.04010453</v>
+        <v>100.83213399</v>
       </c>
       <c r="E37" t="n">
-        <v>100.14598769</v>
+        <v>100.14678653</v>
       </c>
       <c r="F37" t="n">
-        <v>100.11007032</v>
+        <v>100.48248358</v>
       </c>
       <c r="G37" t="n">
-        <v>99.95829795</v>
+        <v>101.06063899</v>
       </c>
       <c r="H37" t="n">
-        <v>100.12719958</v>
+        <v>100.03413369</v>
       </c>
       <c r="I37" t="n">
-        <v>100.34408937</v>
+        <v>100.53849813</v>
       </c>
       <c r="J37" t="n">
-        <v>100.59313123</v>
+        <v>101.65775682</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2019-01</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>99.62386609000001</v>
+        <v>100.04556639</v>
       </c>
       <c r="C38" t="n">
-        <v>101.50906223</v>
+        <v>100.20190018</v>
       </c>
       <c r="D38" t="n">
-        <v>100.44261188</v>
+        <v>101.18517737</v>
       </c>
       <c r="E38" t="n">
-        <v>100.46581136</v>
+        <v>100.11598976</v>
       </c>
       <c r="F38" t="n">
-        <v>100.066283</v>
+        <v>100.03769701</v>
       </c>
       <c r="G38" t="n">
-        <v>100.43965018</v>
+        <v>100.05181577</v>
       </c>
       <c r="H38" t="n">
-        <v>100.20544235</v>
+        <v>100.02991744</v>
       </c>
       <c r="I38" t="n">
-        <v>99.80597397</v>
+        <v>100.40614475</v>
       </c>
       <c r="J38" t="n">
-        <v>101.09867558</v>
+        <v>103.39143124</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2019-02</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>101.16300323</v>
+        <v>99.88687314000001</v>
       </c>
       <c r="C39" t="n">
-        <v>100.29865129</v>
+        <v>99.73161331999999</v>
       </c>
       <c r="D39" t="n">
-        <v>100.85933702</v>
+        <v>100.51376522</v>
       </c>
       <c r="E39" t="n">
-        <v>100.23067048</v>
+        <v>100.04957512</v>
       </c>
       <c r="F39" t="n">
-        <v>100.11028961</v>
+        <v>100.07036928</v>
       </c>
       <c r="G39" t="n">
-        <v>100.52660434</v>
+        <v>99.74251080000001</v>
       </c>
       <c r="H39" t="n">
-        <v>100.12557688</v>
+        <v>99.97110739999999</v>
       </c>
       <c r="I39" t="n">
-        <v>99.62150613999999</v>
+        <v>100.35667893</v>
       </c>
       <c r="J39" t="n">
-        <v>102.03381414</v>
+        <v>101.53994071</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2019-03</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>99.75667919999999</v>
+        <v>100.16671779</v>
       </c>
       <c r="C40" t="n">
-        <v>99.19353129</v>
+        <v>100.02636163</v>
       </c>
       <c r="D40" t="n">
-        <v>99.68548491999999</v>
+        <v>99.90331725999999</v>
       </c>
       <c r="E40" t="n">
-        <v>100.13238146</v>
+        <v>100.24308157</v>
       </c>
       <c r="F40" t="n">
-        <v>99.86202392</v>
+        <v>100.20019114</v>
       </c>
       <c r="G40" t="n">
-        <v>99.569508</v>
+        <v>100.01608745</v>
       </c>
       <c r="H40" t="n">
-        <v>99.9118933</v>
+        <v>100.01908508</v>
       </c>
       <c r="I40" t="n">
-        <v>100.15031528</v>
+        <v>100.15968121</v>
       </c>
       <c r="J40" t="n">
-        <v>99.34337216999999</v>
+        <v>99.43882682</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2019-04</t>
+          <t>2019-01</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>99.94145159999999</v>
+        <v>99.62386609000001</v>
       </c>
       <c r="C41" t="n">
-        <v>100.12285704</v>
+        <v>101.50906223</v>
       </c>
       <c r="D41" t="n">
-        <v>100.11421336</v>
+        <v>100.44261188</v>
       </c>
       <c r="E41" t="n">
-        <v>100.09472484</v>
+        <v>100.46581136</v>
       </c>
       <c r="F41" t="n">
-        <v>99.98722058</v>
+        <v>100.066283</v>
       </c>
       <c r="G41" t="n">
-        <v>100.06339376</v>
+        <v>100.43965018</v>
       </c>
       <c r="H41" t="n">
-        <v>100.0282237</v>
+        <v>100.20544235</v>
       </c>
       <c r="I41" t="n">
-        <v>100.07288092</v>
+        <v>99.80597397</v>
       </c>
       <c r="J41" t="n">
-        <v>100.3097812</v>
+        <v>101.09867558</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2019-05</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>100.17158429</v>
+        <v>101.16300323</v>
       </c>
       <c r="C42" t="n">
-        <v>99.98955798</v>
+        <v>100.29865129</v>
       </c>
       <c r="D42" t="n">
-        <v>100.05866506</v>
+        <v>100.85933702</v>
       </c>
       <c r="E42" t="n">
-        <v>100.050857</v>
+        <v>100.23067048</v>
       </c>
       <c r="F42" t="n">
-        <v>99.98489342000001</v>
+        <v>100.11028961</v>
       </c>
       <c r="G42" t="n">
-        <v>99.9553531</v>
+        <v>100.52660434</v>
       </c>
       <c r="H42" t="n">
-        <v>100.02232469</v>
+        <v>100.12557688</v>
       </c>
       <c r="I42" t="n">
-        <v>100.18211797</v>
+        <v>99.62150613999999</v>
       </c>
       <c r="J42" t="n">
-        <v>100.09024555</v>
+        <v>102.03381414</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2019-06</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>99.29338777</v>
+        <v>99.75667919999999</v>
       </c>
       <c r="C43" t="n">
-        <v>100.44716069</v>
+        <v>99.19353129</v>
       </c>
       <c r="D43" t="n">
-        <v>99.84121817</v>
+        <v>99.68548491999999</v>
       </c>
       <c r="E43" t="n">
-        <v>100.07385093</v>
+        <v>100.13238146</v>
       </c>
       <c r="F43" t="n">
-        <v>99.70203549999999</v>
+        <v>99.86202392</v>
       </c>
       <c r="G43" t="n">
-        <v>99.94828849</v>
+        <v>99.569508</v>
       </c>
       <c r="H43" t="n">
-        <v>99.9860453</v>
+        <v>99.9118933</v>
       </c>
       <c r="I43" t="n">
-        <v>99.99710754</v>
+        <v>100.15031528</v>
       </c>
       <c r="J43" t="n">
-        <v>99.91011564</v>
+        <v>99.34337216999999</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2019-07</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>99.83621671</v>
+        <v>99.94145159999999</v>
       </c>
       <c r="C44" t="n">
-        <v>100.69096575</v>
+        <v>100.12285704</v>
       </c>
       <c r="D44" t="n">
-        <v>100.33269618</v>
+        <v>100.11421336</v>
       </c>
       <c r="E44" t="n">
-        <v>100.02976903</v>
+        <v>100.09472484</v>
       </c>
       <c r="F44" t="n">
-        <v>99.99260534</v>
+        <v>99.98722058</v>
       </c>
       <c r="G44" t="n">
-        <v>100.42915574</v>
+        <v>100.06339376</v>
       </c>
       <c r="H44" t="n">
-        <v>100.0373568</v>
+        <v>100.0282237</v>
       </c>
       <c r="I44" t="n">
-        <v>99.61330472</v>
+        <v>100.07288092</v>
       </c>
       <c r="J44" t="n">
-        <v>100.98073627</v>
+        <v>100.3097812</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2019-08</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>99.78765807000001</v>
+        <v>100.17158429</v>
       </c>
       <c r="C45" t="n">
-        <v>101.04219486</v>
+        <v>99.98955798</v>
       </c>
       <c r="D45" t="n">
-        <v>100.97129859</v>
+        <v>100.05866506</v>
       </c>
       <c r="E45" t="n">
-        <v>100.15223791</v>
+        <v>100.050857</v>
       </c>
       <c r="F45" t="n">
-        <v>100.12863026</v>
+        <v>99.98489342000001</v>
       </c>
       <c r="G45" t="n">
-        <v>100.07859596</v>
+        <v>99.9553531</v>
       </c>
       <c r="H45" t="n">
-        <v>100.07763406</v>
+        <v>100.02232469</v>
       </c>
       <c r="I45" t="n">
-        <v>99.35563931</v>
+        <v>100.18211797</v>
       </c>
       <c r="J45" t="n">
-        <v>103.0273808</v>
+        <v>100.09024555</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2019-09</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>99.78728067</v>
+        <v>99.29338777</v>
       </c>
       <c r="C46" t="n">
-        <v>100.79339548</v>
+        <v>100.44716069</v>
       </c>
       <c r="D46" t="n">
-        <v>101.30744476</v>
+        <v>99.84121817</v>
       </c>
       <c r="E46" t="n">
-        <v>100.08719831</v>
+        <v>100.07385093</v>
       </c>
       <c r="F46" t="n">
-        <v>100.16847661</v>
+        <v>99.70203549999999</v>
       </c>
       <c r="G46" t="n">
-        <v>100.68449309</v>
+        <v>99.94828849</v>
       </c>
       <c r="H46" t="n">
-        <v>99.97531931</v>
+        <v>99.9860453</v>
       </c>
       <c r="I46" t="n">
-        <v>100.47969176</v>
+        <v>99.99710754</v>
       </c>
       <c r="J46" t="n">
-        <v>103.5864137</v>
+        <v>99.91011564</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2019-10</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>100.04556639</v>
+        <v>99.83621671</v>
       </c>
       <c r="C47" t="n">
-        <v>100.20190018</v>
+        <v>100.69096575</v>
       </c>
       <c r="D47" t="n">
-        <v>101.18517737</v>
+        <v>100.33269618</v>
       </c>
       <c r="E47" t="n">
-        <v>100.11598976</v>
+        <v>100.02976903</v>
       </c>
       <c r="F47" t="n">
-        <v>100.03769701</v>
+        <v>99.99260534</v>
       </c>
       <c r="G47" t="n">
-        <v>100.05181577</v>
+        <v>100.42915574</v>
       </c>
       <c r="H47" t="n">
-        <v>100.02991744</v>
+        <v>100.0373568</v>
       </c>
       <c r="I47" t="n">
-        <v>100.40614475</v>
+        <v>99.61330472</v>
       </c>
       <c r="J47" t="n">
-        <v>103.39143124</v>
+        <v>100.98073627</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2019-11</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>99.88687314000001</v>
+        <v>99.78765807000001</v>
       </c>
       <c r="C48" t="n">
-        <v>99.73161331999999</v>
+        <v>101.04219486</v>
       </c>
       <c r="D48" t="n">
-        <v>100.51376522</v>
+        <v>100.97129859</v>
       </c>
       <c r="E48" t="n">
-        <v>100.04957512</v>
+        <v>100.15223791</v>
       </c>
       <c r="F48" t="n">
-        <v>100.07036928</v>
+        <v>100.12863026</v>
       </c>
       <c r="G48" t="n">
-        <v>99.74251080000001</v>
+        <v>100.07859596</v>
       </c>
       <c r="H48" t="n">
-        <v>99.97110739999999</v>
+        <v>100.07763406</v>
       </c>
       <c r="I48" t="n">
-        <v>100.35667893</v>
+        <v>99.35563931</v>
       </c>
       <c r="J48" t="n">
-        <v>101.53994071</v>
+        <v>103.0273808</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2019-12</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>100.16671779</v>
+        <v>99.78728067</v>
       </c>
       <c r="C49" t="n">
-        <v>100.02636163</v>
+        <v>100.79339548</v>
       </c>
       <c r="D49" t="n">
-        <v>99.90331725999999</v>
+        <v>101.30744476</v>
       </c>
       <c r="E49" t="n">
-        <v>100.24308157</v>
+        <v>100.08719831</v>
       </c>
       <c r="F49" t="n">
-        <v>100.20019114</v>
+        <v>100.16847661</v>
       </c>
       <c r="G49" t="n">
-        <v>100.01608745</v>
+        <v>100.68449309</v>
       </c>
       <c r="H49" t="n">
-        <v>100.01908508</v>
+        <v>99.97531931</v>
       </c>
       <c r="I49" t="n">
-        <v>100.15968121</v>
+        <v>100.47969176</v>
       </c>
       <c r="J49" t="n">
-        <v>99.43882682</v>
+        <v>103.5864137</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2020-01</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>101.12277912</v>
+        <v>99.7</v>
       </c>
       <c r="C50" t="n">
-        <v>101.71048785</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>101.35499697</v>
+        <v>99.5</v>
       </c>
       <c r="E50" t="n">
-        <v>100.60407056</v>
+        <v>100.1</v>
       </c>
       <c r="F50" t="n">
-        <v>100.08288937</v>
+        <v>100.2</v>
       </c>
       <c r="G50" t="n">
-        <v>100.43124616</v>
+        <v>100.2</v>
       </c>
       <c r="H50" t="n">
-        <v>100.06882023</v>
+        <v>100.1</v>
       </c>
       <c r="I50" t="n">
-        <v>99.70969148</v>
+        <v>100.4</v>
       </c>
       <c r="J50" t="n">
-        <v>103.19495357</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2020-02</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>98.83845008</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>99.77572410000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>100.87677762</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="E51" t="n">
-        <v>100.25575325</v>
+        <v>100</v>
       </c>
       <c r="F51" t="n">
-        <v>99.87102851</v>
+        <v>100.1</v>
       </c>
       <c r="G51" t="n">
-        <v>99.99927074999999</v>
+        <v>99.8</v>
       </c>
       <c r="H51" t="n">
-        <v>99.91337832000001</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I51" t="n">
-        <v>99.61063163</v>
+        <v>100.4</v>
       </c>
       <c r="J51" t="n">
-        <v>103.01025718</v>
+        <v>98.09999999999999</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2020-03</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>97.90029260999999</v>
+        <v>100.8</v>
       </c>
       <c r="C52" t="n">
-        <v>100.14872444</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>98.70388231</v>
+        <v>100.9</v>
       </c>
       <c r="E52" t="n">
-        <v>100.16486062</v>
+        <v>100</v>
       </c>
       <c r="F52" t="n">
-        <v>99.4789655</v>
+        <v>100.2</v>
       </c>
       <c r="G52" t="n">
-        <v>99.96822576</v>
+        <v>100</v>
       </c>
       <c r="H52" t="n">
-        <v>99.95528578</v>
+        <v>100</v>
       </c>
       <c r="I52" t="n">
-        <v>99.79288235999999</v>
+        <v>100.3</v>
       </c>
       <c r="J52" t="n">
-        <v>97.24866829</v>
+        <v>102.2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2020-04</t>
+          <t>2020-01</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>98.6968421</v>
+        <v>101.12277912</v>
       </c>
       <c r="C53" t="n">
-        <v>100.05917806</v>
+        <v>101.71048785</v>
       </c>
       <c r="D53" t="n">
-        <v>98.96184182</v>
+        <v>101.35499697</v>
       </c>
       <c r="E53" t="n">
-        <v>100.30359031</v>
+        <v>100.60407056</v>
       </c>
       <c r="F53" t="n">
-        <v>99.65660634</v>
+        <v>100.08288937</v>
       </c>
       <c r="G53" t="n">
-        <v>99.92643529</v>
+        <v>100.43124616</v>
       </c>
       <c r="H53" t="n">
-        <v>99.89357982999999</v>
+        <v>100.06882023</v>
       </c>
       <c r="I53" t="n">
-        <v>99.80657668000001</v>
+        <v>99.70969148</v>
       </c>
       <c r="J53" t="n">
-        <v>97.59428311000001</v>
+        <v>103.19495357</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2020-05</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>99.81299882</v>
+        <v>98.83845008</v>
       </c>
       <c r="C54" t="n">
-        <v>100.39986138</v>
+        <v>99.77572410000001</v>
       </c>
       <c r="D54" t="n">
-        <v>99.06468787</v>
+        <v>100.87677762</v>
       </c>
       <c r="E54" t="n">
-        <v>100.19442448</v>
+        <v>100.25575325</v>
       </c>
       <c r="F54" t="n">
-        <v>99.77997812</v>
+        <v>99.87102851</v>
       </c>
       <c r="G54" t="n">
-        <v>100.05092861</v>
+        <v>99.99927074999999</v>
       </c>
       <c r="H54" t="n">
-        <v>99.98074453</v>
+        <v>99.91337832000001</v>
       </c>
       <c r="I54" t="n">
-        <v>100.17757529</v>
+        <v>99.61063163</v>
       </c>
       <c r="J54" t="n">
-        <v>97.32490253</v>
+        <v>103.01025718</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2020-06</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>99.79739492</v>
+        <v>97.90029260999999</v>
       </c>
       <c r="C55" t="n">
-        <v>100.37493548</v>
+        <v>100.14872444</v>
       </c>
       <c r="D55" t="n">
-        <v>100.04322947</v>
+        <v>98.70388231</v>
       </c>
       <c r="E55" t="n">
-        <v>100.0118242</v>
+        <v>100.16486062</v>
       </c>
       <c r="F55" t="n">
-        <v>99.87578774000001</v>
+        <v>99.4789655</v>
       </c>
       <c r="G55" t="n">
-        <v>99.93572545000001</v>
+        <v>99.96822576</v>
       </c>
       <c r="H55" t="n">
-        <v>99.90807805999999</v>
+        <v>99.95528578</v>
       </c>
       <c r="I55" t="n">
-        <v>99.99871582</v>
+        <v>99.79288235999999</v>
       </c>
       <c r="J55" t="n">
-        <v>100.26939575</v>
+        <v>97.24866829</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2020-07</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>100.25677403</v>
+        <v>98.6968421</v>
       </c>
       <c r="C56" t="n">
-        <v>100.44857884</v>
+        <v>100.05917806</v>
       </c>
       <c r="D56" t="n">
-        <v>100.79595048</v>
+        <v>98.96184182</v>
       </c>
       <c r="E56" t="n">
-        <v>99.90528928000001</v>
+        <v>100.30359031</v>
       </c>
       <c r="F56" t="n">
-        <v>99.93495837</v>
+        <v>99.65660634</v>
       </c>
       <c r="G56" t="n">
-        <v>99.9155343</v>
+        <v>99.92643529</v>
       </c>
       <c r="H56" t="n">
-        <v>99.93706967999999</v>
+        <v>99.89357982999999</v>
       </c>
       <c r="I56" t="n">
-        <v>99.62376335</v>
+        <v>99.80657668000001</v>
       </c>
       <c r="J56" t="n">
-        <v>102.42057901</v>
+        <v>97.59428311000001</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2020-08</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>100.18069797</v>
+        <v>99.81299882</v>
       </c>
       <c r="C57" t="n">
-        <v>101.65629614</v>
+        <v>100.39986138</v>
       </c>
       <c r="D57" t="n">
-        <v>100.44643803</v>
+        <v>99.06468787</v>
       </c>
       <c r="E57" t="n">
-        <v>100.07657134</v>
+        <v>100.19442448</v>
       </c>
       <c r="F57" t="n">
-        <v>100.14979724</v>
+        <v>99.77997812</v>
       </c>
       <c r="G57" t="n">
-        <v>99.88315222</v>
+        <v>100.05092861</v>
       </c>
       <c r="H57" t="n">
-        <v>99.95507796</v>
+        <v>99.98074453</v>
       </c>
       <c r="I57" t="n">
-        <v>99.53582199</v>
+        <v>100.17757529</v>
       </c>
       <c r="J57" t="n">
-        <v>101.14810087</v>
+        <v>97.32490253</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2020-09</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>99.9377169</v>
+        <v>99.79739492</v>
       </c>
       <c r="C58" t="n">
-        <v>99.86091806</v>
+        <v>100.37493548</v>
       </c>
       <c r="D58" t="n">
-        <v>100.23442717</v>
+        <v>100.04322947</v>
       </c>
       <c r="E58" t="n">
-        <v>100.0687393</v>
+        <v>100.0118242</v>
       </c>
       <c r="F58" t="n">
-        <v>100.13619377</v>
+        <v>99.87578774000001</v>
       </c>
       <c r="G58" t="n">
-        <v>101.1081568</v>
+        <v>99.93572545000001</v>
       </c>
       <c r="H58" t="n">
-        <v>100.04682872</v>
+        <v>99.90807805999999</v>
       </c>
       <c r="I58" t="n">
-        <v>100.52104361</v>
+        <v>99.99871582</v>
       </c>
       <c r="J58" t="n">
-        <v>100.15192325</v>
+        <v>100.26939575</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2020-10</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>99.7</v>
+        <v>100.25677403</v>
       </c>
       <c r="C59" t="n">
-        <v>98.40000000000001</v>
+        <v>100.44857884</v>
       </c>
       <c r="D59" t="n">
-        <v>99.5</v>
+        <v>100.79595048</v>
       </c>
       <c r="E59" t="n">
-        <v>100.1</v>
+        <v>99.90528928000001</v>
       </c>
       <c r="F59" t="n">
-        <v>100.2</v>
+        <v>99.93495837</v>
       </c>
       <c r="G59" t="n">
-        <v>100.2</v>
+        <v>99.9155343</v>
       </c>
       <c r="H59" t="n">
-        <v>100.1</v>
+        <v>99.93706967999999</v>
       </c>
       <c r="I59" t="n">
-        <v>100.4</v>
+        <v>99.62376335</v>
       </c>
       <c r="J59" t="n">
-        <v>98.5</v>
+        <v>102.42057901</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2020-11</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>99.90000000000001</v>
+        <v>100.18069797</v>
       </c>
       <c r="C60" t="n">
-        <v>99.59999999999999</v>
+        <v>101.65629614</v>
       </c>
       <c r="D60" t="n">
-        <v>99.40000000000001</v>
+        <v>100.44643803</v>
       </c>
       <c r="E60" t="n">
-        <v>100</v>
+        <v>100.07657134</v>
       </c>
       <c r="F60" t="n">
-        <v>100.1</v>
+        <v>100.14979724</v>
       </c>
       <c r="G60" t="n">
-        <v>99.8</v>
+        <v>99.88315222</v>
       </c>
       <c r="H60" t="n">
-        <v>99.90000000000001</v>
+        <v>99.95507796</v>
       </c>
       <c r="I60" t="n">
-        <v>100.4</v>
+        <v>99.53582199</v>
       </c>
       <c r="J60" t="n">
-        <v>98.09999999999999</v>
+        <v>101.14810087</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2020-12</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>100.8</v>
+        <v>99.9377169</v>
       </c>
       <c r="C61" t="n">
-        <v>99.59999999999999</v>
+        <v>99.86091806</v>
       </c>
       <c r="D61" t="n">
-        <v>100.9</v>
+        <v>100.23442717</v>
       </c>
       <c r="E61" t="n">
-        <v>100</v>
+        <v>100.0687393</v>
       </c>
       <c r="F61" t="n">
-        <v>100.2</v>
+        <v>100.13619377</v>
       </c>
       <c r="G61" t="n">
-        <v>100</v>
+        <v>101.1081568</v>
       </c>
       <c r="H61" t="n">
-        <v>100</v>
+        <v>100.04682872</v>
       </c>
       <c r="I61" t="n">
-        <v>100.3</v>
+        <v>100.52104361</v>
       </c>
       <c r="J61" t="n">
-        <v>102.2</v>
+        <v>100.15192325</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2021-01</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>100.9</v>
+        <v>101.1</v>
       </c>
       <c r="C62" t="n">
-        <v>100.6</v>
+        <v>100.1</v>
       </c>
       <c r="D62" t="n">
-        <v>101.1</v>
+        <v>100.7</v>
       </c>
       <c r="E62" t="n">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="F62" t="n">
-        <v>100.2</v>
+        <v>101</v>
       </c>
       <c r="G62" t="n">
         <v>100.2</v>
@@ -2548,384 +2548,1030 @@
         <v>100.2</v>
       </c>
       <c r="I62" t="n">
-        <v>99.7</v>
+        <v>100.3</v>
       </c>
       <c r="J62" t="n">
-        <v>102.8</v>
+        <v>100.9</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2021-02</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>101.2</v>
+        <v>100.5</v>
       </c>
       <c r="C63" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="D63" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="E63" t="n">
+        <v>100</v>
+      </c>
+      <c r="F63" t="n">
+        <v>100</v>
+      </c>
+      <c r="G63" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="D63" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="E63" t="n">
-        <v>100</v>
-      </c>
-      <c r="F63" t="n">
-        <v>100</v>
-      </c>
-      <c r="G63" t="n">
-        <v>100.2</v>
-      </c>
       <c r="H63" t="n">
-        <v>100</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="I63" t="n">
-        <v>99.5</v>
+        <v>100.6</v>
       </c>
       <c r="J63" t="n">
-        <v>100.9</v>
+        <v>101.9</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2021-03</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>101.1</v>
+        <v>98.7</v>
       </c>
       <c r="C64" t="n">
-        <v>99.2</v>
+        <v>100.3</v>
       </c>
       <c r="D64" t="n">
-        <v>99.40000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="E64" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="F64" t="n">
-        <v>100.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="G64" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="H64" t="n">
-        <v>100.1</v>
+        <v>100.3</v>
       </c>
       <c r="I64" t="n">
         <v>100</v>
       </c>
       <c r="J64" t="n">
-        <v>97.40000000000001</v>
+        <v>99.7</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2021-04</t>
+          <t>2021-01</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>100.1</v>
+        <v>100.9</v>
       </c>
       <c r="C65" t="n">
-        <v>99.7</v>
+        <v>100.6</v>
       </c>
       <c r="D65" t="n">
-        <v>99.5</v>
+        <v>101.1</v>
       </c>
       <c r="E65" t="n">
         <v>100.2</v>
       </c>
       <c r="F65" t="n">
-        <v>100</v>
+        <v>100.2</v>
       </c>
       <c r="G65" t="n">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="H65" t="n">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="I65" t="n">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="J65" t="n">
-        <v>98.2</v>
+        <v>102.8</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2021-05</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B66" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="C66" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="D66" t="n">
         <v>100.4</v>
       </c>
-      <c r="C66" t="n">
+      <c r="E66" t="n">
+        <v>100</v>
+      </c>
+      <c r="F66" t="n">
+        <v>100</v>
+      </c>
+      <c r="G66" t="n">
         <v>100.2</v>
       </c>
-      <c r="D66" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="E66" t="n">
-        <v>100</v>
-      </c>
-      <c r="F66" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="G66" t="n">
-        <v>100.1</v>
-      </c>
       <c r="H66" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="I66" t="n">
-        <v>100.4</v>
+        <v>99.5</v>
       </c>
       <c r="J66" t="n">
-        <v>98.59999999999999</v>
+        <v>100.9</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2021-06</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>100.2</v>
+        <v>101.1</v>
       </c>
       <c r="C67" t="n">
-        <v>100.3</v>
+        <v>99.2</v>
       </c>
       <c r="D67" t="n">
-        <v>99.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="E67" t="n">
         <v>100.1</v>
       </c>
       <c r="F67" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="G67" t="n">
-        <v>99.90000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="H67" t="n">
-        <v>99.8</v>
+        <v>100.1</v>
       </c>
       <c r="I67" t="n">
         <v>100</v>
       </c>
       <c r="J67" t="n">
-        <v>98.40000000000001</v>
+        <v>97.40000000000001</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>101.1</v>
+        <v>100.1</v>
       </c>
       <c r="C68" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="D68" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="E68" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="F68" t="n">
+        <v>100</v>
+      </c>
+      <c r="G68" t="n">
         <v>100.3</v>
       </c>
-      <c r="D68" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="E68" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="F68" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="G68" t="n">
-        <v>100.4</v>
-      </c>
       <c r="H68" t="n">
-        <v>100.5</v>
+        <v>100.3</v>
       </c>
       <c r="I68" t="n">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="J68" t="n">
-        <v>99.8</v>
+        <v>98.2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>99.59999999999999</v>
+        <v>100.4</v>
       </c>
       <c r="C69" t="n">
-        <v>99.5</v>
+        <v>100.2</v>
       </c>
       <c r="D69" t="n">
-        <v>100.2</v>
+        <v>99.7</v>
       </c>
       <c r="E69" t="n">
         <v>100</v>
       </c>
       <c r="F69" t="n">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="G69" t="n">
         <v>100.1</v>
       </c>
       <c r="H69" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I69" t="n">
-        <v>99.8</v>
+        <v>100.4</v>
       </c>
       <c r="J69" t="n">
-        <v>100.7</v>
+        <v>98.59999999999999</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2021-09</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>99.90000000000001</v>
+        <v>100.2</v>
       </c>
       <c r="C70" t="n">
         <v>100.3</v>
       </c>
       <c r="D70" t="n">
-        <v>100.1</v>
+        <v>99.5</v>
       </c>
       <c r="E70" t="n">
         <v>100.1</v>
       </c>
       <c r="F70" t="n">
-        <v>100.3</v>
+        <v>100</v>
       </c>
       <c r="G70" t="n">
-        <v>101.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="H70" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="I70" t="n">
-        <v>100.5</v>
+        <v>100</v>
       </c>
       <c r="J70" t="n">
-        <v>99.59999999999999</v>
+        <v>98.40000000000001</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>101.1</v>
       </c>
       <c r="C71" t="n">
-        <v>100.1</v>
+        <v>100.3</v>
       </c>
       <c r="D71" t="n">
-        <v>100.7</v>
+        <v>100.2</v>
       </c>
       <c r="E71" t="n">
         <v>100.1</v>
       </c>
       <c r="F71" t="n">
-        <v>101</v>
+        <v>100.1</v>
       </c>
       <c r="G71" t="n">
-        <v>100.2</v>
+        <v>100.4</v>
       </c>
       <c r="H71" t="n">
-        <v>100.2</v>
+        <v>100.5</v>
       </c>
       <c r="I71" t="n">
-        <v>100.3</v>
+        <v>99.7</v>
       </c>
       <c r="J71" t="n">
-        <v>100.9</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>100.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>99.40000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="D72" t="n">
-        <v>100.6</v>
+        <v>100.2</v>
       </c>
       <c r="E72" t="n">
         <v>100</v>
       </c>
       <c r="F72" t="n">
-        <v>100</v>
+        <v>100.2</v>
       </c>
       <c r="G72" t="n">
-        <v>99.90000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="H72" t="n">
-        <v>99.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="I72" t="n">
-        <v>100.6</v>
+        <v>99.8</v>
       </c>
       <c r="J72" t="n">
-        <v>101.9</v>
+        <v>100.7</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2021-12</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>98.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C73" t="n">
         <v>100.3</v>
       </c>
       <c r="D73" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="E73" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="F73" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="G73" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="H73" t="n">
+        <v>100</v>
+      </c>
+      <c r="I73" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="J73" t="n">
+        <v>99.59999999999999</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
         <v>99.7</v>
       </c>
-      <c r="E73" t="n">
-        <v>100</v>
-      </c>
-      <c r="F73" t="n">
+      <c r="C74" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="D74" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="E74" t="n">
+        <v>100</v>
+      </c>
+      <c r="F74" t="n">
+        <v>100</v>
+      </c>
+      <c r="G74" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="H74" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="I74" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="J74" t="n">
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="C75" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="D75" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="E75" t="n">
+        <v>100</v>
+      </c>
+      <c r="F75" t="n">
+        <v>100</v>
+      </c>
+      <c r="G75" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="H75" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="I75" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="J75" t="n">
+        <v>99.40000000000001</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="C76" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="D76" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="E76" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="F76" t="n">
+        <v>100</v>
+      </c>
+      <c r="G76" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="H76" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="I76" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="J76" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="G73" t="n">
-        <v>100</v>
-      </c>
-      <c r="H73" t="n">
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="C77" t="n">
+        <v>101</v>
+      </c>
+      <c r="D77" t="n">
         <v>100.3</v>
       </c>
-      <c r="I73" t="n">
-        <v>100</v>
-      </c>
-      <c r="J73" t="n">
+      <c r="E77" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="F77" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="G77" t="n">
+        <v>100</v>
+      </c>
+      <c r="H77" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="I77" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J77" t="n">
+        <v>100.6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="C78" t="n">
+        <v>100</v>
+      </c>
+      <c r="D78" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="E78" t="n">
+        <v>100</v>
+      </c>
+      <c r="F78" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="G78" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="H78" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="I78" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="J78" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="C79" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="D79" t="n">
+        <v>100</v>
+      </c>
+      <c r="E79" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="F79" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="G79" t="n">
+        <v>100</v>
+      </c>
+      <c r="H79" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="I79" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="J79" t="n">
+        <v>98.90000000000001</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="C80" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="D80" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="E80" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="F80" t="n">
+        <v>100</v>
+      </c>
+      <c r="G80" t="n">
+        <v>100</v>
+      </c>
+      <c r="H80" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="I80" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J80" t="n">
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="C81" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="D81" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E81" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="F81" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="G81" t="n">
+        <v>100</v>
+      </c>
+      <c r="H81" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="J81" t="n">
+        <v>99.3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>2022-06</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>101.9</v>
+      </c>
+      <c r="C82" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="D82" t="n">
+        <v>100</v>
+      </c>
+      <c r="E82" t="n">
+        <v>100</v>
+      </c>
+      <c r="F82" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="G82" t="n">
+        <v>100</v>
+      </c>
+      <c r="H82" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I82" t="n">
+        <v>100</v>
+      </c>
+      <c r="J82" t="n">
+        <v>99.40000000000001</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="C83" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="D83" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="E83" t="n">
+        <v>100</v>
+      </c>
+      <c r="F83" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="G83" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="H83" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="I83" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="J83" t="n">
+        <v>102.3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="C84" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="D84" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E84" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="F84" t="n">
+        <v>100</v>
+      </c>
+      <c r="G84" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="H84" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="I84" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J84" t="n">
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="C85" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="D85" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="E85" t="n">
+        <v>100</v>
+      </c>
+      <c r="F85" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="G85" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="H85" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="I85" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="J85" t="n">
+        <v>101.4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>2023-01</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>100</v>
+      </c>
+      <c r="C86" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="D86" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="E86" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="F86" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="G86" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="H86" t="n">
+        <v>100</v>
+      </c>
+      <c r="I86" t="n">
         <v>99.7</v>
+      </c>
+      <c r="J86" t="n">
+        <v>101.5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="C87" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="D87" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="E87" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="F87" t="n">
+        <v>100</v>
+      </c>
+      <c r="G87" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="H87" t="n">
+        <v>100</v>
+      </c>
+      <c r="I87" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J87" t="n">
+        <v>98.59999999999999</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>2023-03</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="C88" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="D88" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="E88" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="F88" t="n">
+        <v>100</v>
+      </c>
+      <c r="G88" t="n">
+        <v>100</v>
+      </c>
+      <c r="H88" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="I88" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="J88" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>2023-04</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="C89" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="D89" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="E89" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="F89" t="n">
+        <v>100</v>
+      </c>
+      <c r="G89" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="H89" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="I89" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J89" t="n">
+        <v>99.40000000000001</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>2023-05</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="C90" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="D90" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="E90" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="F90" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="G90" t="n">
+        <v>100</v>
+      </c>
+      <c r="H90" t="n">
+        <v>100</v>
+      </c>
+      <c r="I90" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="J90" t="n">
+        <v>99.59999999999999</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>2023-06</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="C91" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="D91" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="E91" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="F91" t="n">
+        <v>100</v>
+      </c>
+      <c r="G91" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="H91" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="I91" t="n">
+        <v>100</v>
+      </c>
+      <c r="J91" t="n">
+        <v>99.7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>2023-07</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="C92" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="D92" t="n">
+        <v>100</v>
+      </c>
+      <c r="E92" t="n">
+        <v>100</v>
+      </c>
+      <c r="F92" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="G92" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="H92" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="I92" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J92" t="n">
+        <v>99.3</v>
       </c>
     </row>
   </sheetData>
